--- a/firebase_data_from_spyEnsembleVS.xlsx
+++ b/firebase_data_from_spyEnsembleVS.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58882DEC-953B-4891-8AF0-9BE66A1FFC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Fecha</t>
-  </si>
   <si>
     <t>Direction</t>
   </si>
@@ -33,15 +36,18 @@
   <si>
     <t>proba1</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +111,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -183,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -217,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -392,34 +408,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -442,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -465,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -488,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -511,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -534,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -557,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -580,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -603,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -626,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -649,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -672,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -695,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -712,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4615384615384615</v>
+        <v>0.46153846153846151</v>
       </c>
       <c r="G14">
-        <v>0.5384615384615385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.53846153846153855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -741,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -764,7 +782,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -781,13 +799,13 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.4705882352941176</v>
+        <v>0.47058823529411759</v>
       </c>
       <c r="G17">
-        <v>0.5294117647058824</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -804,13 +822,13 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G18">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -827,13 +845,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4210526315789472</v>
+        <v>0.42105263157894718</v>
       </c>
       <c r="G19">
-        <v>0.5789473684210527</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -850,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G20">
         <v>0.45</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -879,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -902,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -919,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5217391304347826</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="G23">
-        <v>0.4782608695652175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.47826086956521752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -948,7 +966,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -971,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -994,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1011,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.4827586206896551</v>
+        <v>0.48275862068965508</v>
       </c>
       <c r="G27">
-        <v>0.5172413793103449</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.51724137931034486</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1040,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1063,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1086,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1103,13 +1121,13 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.4848484848484849</v>
+        <v>0.48484848484848492</v>
       </c>
       <c r="G31">
-        <v>0.5151515151515151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.51515151515151514</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1132,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1149,13 +1167,13 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0.4722222222222222</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="G33">
-        <v>0.5277777777777778</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1172,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.5405405405405406</v>
+        <v>0.54054054054054057</v>
       </c>
       <c r="G34">
-        <v>0.4594594594594595</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.45945945945945948</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1201,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1224,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1247,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1270,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1293,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1316,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1333,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.4782608695652174</v>
+        <v>0.47826086956521741</v>
       </c>
       <c r="G41">
-        <v>0.5217391304347826</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.52173913043478259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1356,13 +1374,13 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>0.4893617021276596</v>
+        <v>0.48936170212765961</v>
       </c>
       <c r="G42">
-        <v>0.5106382978723404</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.51063829787234039</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1379,13 +1397,13 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.5208333333333334</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="G43">
-        <v>0.4791666666666667</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1408,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1431,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1454,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1477,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1500,7 +1518,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1517,13 +1535,13 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>0.4893617021276596</v>
+        <v>0.48936170212765961</v>
       </c>
       <c r="G49">
-        <v>0.5106382978723404</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.51063829787234039</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1540,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.4893617021276596</v>
+        <v>0.48936170212765961</v>
       </c>
       <c r="G50">
-        <v>0.5106382978723404</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.51063829787234039</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1569,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1586,13 +1604,13 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.5106382978723404</v>
+        <v>0.51063829787234039</v>
       </c>
       <c r="G52">
-        <v>0.4893617021276596</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.48936170212765961</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1609,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.5106382978723404</v>
+        <v>0.51063829787234039</v>
       </c>
       <c r="G53">
-        <v>0.4893617021276596</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.48936170212765961</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1638,7 +1656,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1661,7 +1679,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1684,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1701,13 +1719,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.5319148936170213</v>
+        <v>0.53191489361702127</v>
       </c>
       <c r="G57">
-        <v>0.4680851063829787</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.46808510638297868</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1730,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1753,7 +1771,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1776,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1799,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1816,13 +1834,13 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>0.4893617021276596</v>
+        <v>0.48936170212765961</v>
       </c>
       <c r="G62">
-        <v>0.5106382978723404</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.51063829787234039</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1845,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1868,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1891,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1914,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1937,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1954,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.4893617021276596</v>
+        <v>0.48936170212765961</v>
       </c>
       <c r="G68">
-        <v>0.5106382978723404</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.51063829787234039</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1983,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2006,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2029,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2052,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2075,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2092,13 +2110,13 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>0.4888888888888889</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="G74">
-        <v>0.5111111111111112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.51111111111111118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2115,13 +2133,13 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>0.4772727272727273</v>
+        <v>0.47727272727272729</v>
       </c>
       <c r="G75">
-        <v>0.5227272727272727</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2144,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2167,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2190,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2213,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2236,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2253,13 +2271,13 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G81">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2276,13 +2294,13 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G82">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2305,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2328,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2351,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2374,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2397,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2414,13 +2432,13 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>0.5714285714285715</v>
+        <v>0.57142857142857151</v>
       </c>
       <c r="G88">
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2443,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2466,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2483,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.5476190476190477</v>
+        <v>0.54761904761904767</v>
       </c>
       <c r="G91">
-        <v>0.4523809523809524</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.45238095238095238</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2506,13 +2524,13 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>0.4761904761904762</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="G92">
-        <v>0.5238095238095238</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2535,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2558,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2575,13 +2593,13 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>0.5365853658536586</v>
+        <v>0.53658536585365857</v>
       </c>
       <c r="G95">
-        <v>0.4634146341463413</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.46341463414634132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2598,13 +2616,13 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0.4390243902439024</v>
+        <v>0.43902439024390238</v>
       </c>
       <c r="G96">
-        <v>0.5609756097560976</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.56097560975609762</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2621,13 +2639,13 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>0.4523809523809524</v>
+        <v>0.45238095238095238</v>
       </c>
       <c r="G97">
-        <v>0.5476190476190477</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.54761904761904767</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2644,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>0.4523809523809524</v>
+        <v>0.45238095238095238</v>
       </c>
       <c r="G98">
-        <v>0.5476190476190477</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.54761904761904767</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2667,13 +2685,13 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>0.5714285714285715</v>
+        <v>0.57142857142857151</v>
       </c>
       <c r="G99">
         <v>0.4285714285714286</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2696,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2719,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2742,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2765,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2788,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2811,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2834,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2857,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2880,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2903,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2926,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2949,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2972,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2995,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3012,13 +3030,13 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0.4651162790697674</v>
+        <v>0.46511627906976738</v>
       </c>
       <c r="G114">
-        <v>0.5348837209302326</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>0.53488372093023262</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3041,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3064,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3081,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0.5111111111111112</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="G117">
-        <v>0.4888888888888889</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>0.48888888888888887</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3104,13 +3122,13 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <v>0.4888888888888889</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="G118">
-        <v>0.5111111111111112</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>0.51111111111111118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3127,13 +3145,13 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>0.5227272727272727</v>
+        <v>0.52272727272727271</v>
       </c>
       <c r="G119">
-        <v>0.4772727272727273</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>0.47727272727272729</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3156,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3179,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3202,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3219,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>0.5319148936170213</v>
+        <v>0.53191489361702127</v>
       </c>
       <c r="G123">
-        <v>0.4680851063829787</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>0.46808510638297868</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3242,13 +3260,13 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0.5319148936170213</v>
+        <v>0.53191489361702127</v>
       </c>
       <c r="G124">
-        <v>0.4680851063829787</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>0.46808510638297868</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3265,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>0.5106382978723404</v>
+        <v>0.51063829787234039</v>
       </c>
       <c r="G125">
-        <v>0.4893617021276596</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>0.48936170212765961</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3294,7 +3312,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3317,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3340,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3363,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3380,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>0.5208333333333334</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="G130">
-        <v>0.4791666666666667</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3409,7 +3427,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3432,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3455,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3478,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3501,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3524,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3547,7 +3565,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3570,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3593,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3616,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3639,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3662,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3679,13 +3697,13 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>0.4716981132075472</v>
+        <v>0.47169811320754718</v>
       </c>
       <c r="G143">
-        <v>0.5283018867924528</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>0.52830188679245282</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3702,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>0.5192307692307692</v>
+        <v>0.51923076923076916</v>
       </c>
       <c r="G144">
-        <v>0.4807692307692308</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>0.48076923076923078</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3725,13 +3743,13 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>0.5098039215686275</v>
+        <v>0.50980392156862753</v>
       </c>
       <c r="G145">
-        <v>0.4901960784313726</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>0.49019607843137258</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3754,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3771,13 +3789,13 @@
         <v>1</v>
       </c>
       <c r="F147">
-        <v>0.4705882352941176</v>
+        <v>0.47058823529411759</v>
       </c>
       <c r="G147">
-        <v>0.5294117647058824</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3800,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3823,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3840,13 +3858,13 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>0.5306122448979592</v>
+        <v>0.53061224489795922</v>
       </c>
       <c r="G150">
-        <v>0.4693877551020408</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>0.46938775510204078</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3869,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3892,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3909,13 +3927,13 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>0.5306122448979592</v>
+        <v>0.53061224489795922</v>
       </c>
       <c r="G153">
-        <v>0.4693877551020408</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>0.46938775510204078</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3932,13 +3950,13 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>0.4791666666666667</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="G154">
-        <v>0.5208333333333334</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3955,13 +3973,13 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>0.5319148936170213</v>
+        <v>0.53191489361702127</v>
       </c>
       <c r="G155">
-        <v>0.4680851063829787</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>0.46808510638297868</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3984,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4007,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4024,13 +4042,13 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>0.5531914893617021</v>
+        <v>0.55319148936170215</v>
       </c>
       <c r="G158">
-        <v>0.4468085106382979</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>0.44680851063829791</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4053,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4070,13 +4088,13 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <v>0.4347826086956522</v>
+        <v>0.43478260869565222</v>
       </c>
       <c r="G160">
-        <v>0.5652173913043479</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>0.56521739130434789</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4099,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4122,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4139,13 +4157,13 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>0.4468085106382979</v>
+        <v>0.44680851063829791</v>
       </c>
       <c r="G163">
-        <v>0.5531914893617021</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>0.55319148936170215</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4168,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4191,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4208,13 +4226,13 @@
         <v>1</v>
       </c>
       <c r="F166">
-        <v>0.4791666666666667</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="G166">
-        <v>0.5208333333333334</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4237,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4260,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4283,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4306,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4323,13 +4341,13 @@
         <v>1</v>
       </c>
       <c r="F171">
-        <v>0.4799999999999999</v>
+        <v>0.47999999999999993</v>
       </c>
       <c r="G171">
         <v>0.52</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4352,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4375,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4392,13 +4410,13 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>0.5306122448979592</v>
+        <v>0.53061224489795922</v>
       </c>
       <c r="G174">
-        <v>0.4693877551020408</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>0.46938775510204078</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4421,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4438,13 +4456,13 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>0.5102040816326531</v>
+        <v>0.51020408163265307</v>
       </c>
       <c r="G176">
-        <v>0.4897959183673469</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>0.48979591836734693</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4467,7 +4485,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4484,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>0.4897959183673469</v>
+        <v>0.48979591836734693</v>
       </c>
       <c r="G178">
-        <v>0.5102040816326531</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>0.51020408163265307</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4513,7 +4531,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4533,10 +4551,10 @@
         <v>0.52</v>
       </c>
       <c r="G180">
-        <v>0.4799999999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>0.47999999999999993</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4559,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4582,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4605,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4628,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4645,13 +4663,13 @@
         <v>1</v>
       </c>
       <c r="F185">
-        <v>0.4893617021276596</v>
+        <v>0.48936170212765961</v>
       </c>
       <c r="G185">
-        <v>0.5106382978723404</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>0.51063829787234039</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4674,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4697,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4720,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4743,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4766,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4789,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4812,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4835,7 +4853,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4858,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4881,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4898,13 +4916,13 @@
         <v>1</v>
       </c>
       <c r="F196">
-        <v>0.5208333333333334</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="G196">
-        <v>0.4791666666666667</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4921,13 +4939,13 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>0.5208333333333334</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="G197">
-        <v>0.4791666666666667</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4944,13 +4962,13 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>0.5106382978723404</v>
+        <v>0.51063829787234039</v>
       </c>
       <c r="G198">
-        <v>0.4893617021276596</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>0.48936170212765961</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4967,13 +4985,13 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>0.4893617021276596</v>
+        <v>0.48936170212765961</v>
       </c>
       <c r="G199">
-        <v>0.5106382978723404</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>0.51063829787234039</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4996,7 +5014,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5013,13 +5031,13 @@
         <v>1</v>
       </c>
       <c r="F201">
-        <v>0.5111111111111112</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="G201">
-        <v>0.4888888888888889</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>0.48888888888888887</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5042,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5065,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5082,13 +5100,13 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G204">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5105,13 +5123,13 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>0.5111111111111112</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="G205">
-        <v>0.4888888888888889</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>0.48888888888888887</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5128,13 +5146,13 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>0.5217391304347826</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="G206">
-        <v>0.4782608695652174</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+        <v>0.47826086956521741</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5157,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5174,13 +5192,13 @@
         <v>1</v>
       </c>
       <c r="F208">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G208">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5203,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5220,13 +5238,13 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G210">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5249,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5272,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5289,13 +5307,13 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G213">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5318,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5341,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5364,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -5381,13 +5399,13 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G217">
-        <v>0.4444444444444444</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -5404,13 +5422,13 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>0.5777777777777778</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="G218">
-        <v>0.4222222222222223</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
+        <v>0.42222222222222228</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -5427,13 +5445,13 @@
         <v>1</v>
       </c>
       <c r="F219">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G219">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -5450,13 +5468,13 @@
         <v>1</v>
       </c>
       <c r="F220">
-        <v>0.5681818181818182</v>
+        <v>0.56818181818181823</v>
       </c>
       <c r="G220">
-        <v>0.4318181818181818</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+        <v>0.43181818181818182</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -5473,13 +5491,13 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>0.5777777777777778</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="G221">
-        <v>0.4222222222222223</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+        <v>0.42222222222222228</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -5502,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -5519,13 +5537,13 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>0.5652173913043479</v>
+        <v>0.56521739130434789</v>
       </c>
       <c r="G223">
-        <v>0.4347826086956522</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+        <v>0.43478260869565222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -5542,13 +5560,13 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>0.5652173913043479</v>
+        <v>0.56521739130434789</v>
       </c>
       <c r="G224">
-        <v>0.4347826086956522</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+        <v>0.43478260869565222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -5571,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -5594,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -5617,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -5640,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -5663,7 +5681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -5686,7 +5704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5709,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5732,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5755,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5778,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5801,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5818,13 +5836,13 @@
         <v>1</v>
       </c>
       <c r="F236">
-        <v>0.3777777777777779</v>
+        <v>0.37777777777777788</v>
       </c>
       <c r="G236">
-        <v>0.6222222222222222</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+        <v>0.62222222222222223</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5847,7 +5865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5870,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5893,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5910,13 +5928,13 @@
         <v>1</v>
       </c>
       <c r="F240">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="G240">
         <v>0.4</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5933,13 +5951,13 @@
         <v>1</v>
       </c>
       <c r="F241">
-        <v>0.6136363636363636</v>
+        <v>0.61363636363636365</v>
       </c>
       <c r="G241">
-        <v>0.3863636363636364</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
+        <v>0.38636363636363641</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5962,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5985,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6002,13 +6020,13 @@
         <v>1</v>
       </c>
       <c r="F244">
-        <v>0.6222222222222222</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="G244">
-        <v>0.3777777777777779</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
+        <v>0.37777777777777788</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6025,13 +6043,13 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>0.6222222222222222</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="G245">
-        <v>0.3777777777777779</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
+        <v>0.37777777777777788</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -6048,13 +6066,13 @@
         <v>1</v>
       </c>
       <c r="F246">
-        <v>0.3863636363636364</v>
+        <v>0.38636363636363641</v>
       </c>
       <c r="G246">
-        <v>0.6136363636363636</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
+        <v>0.61363636363636365</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6071,13 +6089,13 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>0.6136363636363636</v>
+        <v>0.61363636363636365</v>
       </c>
       <c r="G247">
-        <v>0.3863636363636364</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
+        <v>0.38636363636363641</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -6100,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -6123,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -6146,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -6163,13 +6181,13 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>0.4130434782608696</v>
+        <v>0.41304347826086962</v>
       </c>
       <c r="G251">
-        <v>0.5869565217391304</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
+        <v>0.58695652173913038</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -6192,7 +6210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -6215,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -6238,7 +6256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -6261,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -6278,13 +6296,13 @@
         <v>1</v>
       </c>
       <c r="F256">
-        <v>0.4222222222222223</v>
+        <v>0.42222222222222228</v>
       </c>
       <c r="G256">
-        <v>0.5777777777777778</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
+        <v>0.57777777777777783</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -6301,13 +6319,13 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="G257">
         <v>0.4</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -6330,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -6353,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -6376,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -6399,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -6422,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -6445,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -6468,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -6485,13 +6503,13 @@
         <v>1</v>
       </c>
       <c r="F265">
-        <v>0.4693877551020408</v>
+        <v>0.46938775510204078</v>
       </c>
       <c r="G265">
-        <v>0.5306122448979592</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
+        <v>0.53061224489795922</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -6514,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -6537,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -6554,13 +6572,13 @@
         <v>1</v>
       </c>
       <c r="F268">
-        <v>0.4791666666666667</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="G268">
-        <v>0.5208333333333334</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -6577,13 +6595,13 @@
         <v>1</v>
       </c>
       <c r="F269">
-        <v>0.5319148936170213</v>
+        <v>0.53191489361702127</v>
       </c>
       <c r="G269">
-        <v>0.4680851063829787</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
+        <v>0.46808510638297868</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -6606,7 +6624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -6629,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -6652,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -6675,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -6698,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -6715,13 +6733,13 @@
         <v>1</v>
       </c>
       <c r="F275">
-        <v>0.4791666666666667</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="G275">
-        <v>0.5208333333333334</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -6738,13 +6756,13 @@
         <v>1</v>
       </c>
       <c r="F276">
-        <v>0.4693877551020408</v>
+        <v>0.46938775510204078</v>
       </c>
       <c r="G276">
-        <v>0.5306122448979592</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
+        <v>0.53061224489795922</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -6767,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -6790,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -6807,13 +6825,13 @@
         <v>1</v>
       </c>
       <c r="F279">
-        <v>0.5306122448979592</v>
+        <v>0.53061224489795922</v>
       </c>
       <c r="G279">
-        <v>0.4693877551020408</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
+        <v>0.46938775510204078</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -6836,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6859,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -6876,13 +6894,13 @@
         <v>0</v>
       </c>
       <c r="F282">
-        <v>0.5319148936170213</v>
+        <v>0.53191489361702127</v>
       </c>
       <c r="G282">
-        <v>0.4680851063829787</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
+        <v>0.46808510638297868</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -6899,13 +6917,13 @@
         <v>0</v>
       </c>
       <c r="F283">
-        <v>0.4893617021276596</v>
+        <v>0.48936170212765961</v>
       </c>
       <c r="G283">
-        <v>0.5106382978723404</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
+        <v>0.51063829787234039</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -6928,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -6951,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -6974,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -6997,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7020,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7037,13 +7055,13 @@
         <v>1</v>
       </c>
       <c r="F289">
-        <v>0.5111111111111112</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="G289">
-        <v>0.4888888888888889</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
+        <v>0.48888888888888887</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -7060,13 +7078,13 @@
         <v>1</v>
       </c>
       <c r="F290">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G290">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -7089,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -7112,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -7129,13 +7147,13 @@
         <v>1</v>
       </c>
       <c r="F293">
-        <v>0.5454545454545455</v>
+        <v>0.54545454545454553</v>
       </c>
       <c r="G293">
-        <v>0.4545454545454545</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
+        <v>0.45454545454545447</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -7158,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -7181,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -7198,13 +7216,13 @@
         <v>1</v>
       </c>
       <c r="F296">
-        <v>0.5434782608695652</v>
+        <v>0.54347826086956519</v>
       </c>
       <c r="G296">
-        <v>0.4565217391304348</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
+        <v>0.45652173913043481</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -7227,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -7250,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -7273,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -7290,13 +7308,13 @@
         <v>0</v>
       </c>
       <c r="F300">
-        <v>0.4565217391304348</v>
+        <v>0.45652173913043481</v>
       </c>
       <c r="G300">
-        <v>0.5434782608695652</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
+        <v>0.54347826086956519</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -7319,7 +7337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -7336,13 +7354,13 @@
         <v>1</v>
       </c>
       <c r="F302">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G302">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -7359,13 +7377,13 @@
         <v>0</v>
       </c>
       <c r="F303">
-        <v>0.4565217391304348</v>
+        <v>0.45652173913043481</v>
       </c>
       <c r="G303">
-        <v>0.5434782608695652</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
+        <v>0.54347826086956519</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -7382,13 +7400,13 @@
         <v>1</v>
       </c>
       <c r="F304">
-        <v>0.4782608695652174</v>
+        <v>0.47826086956521741</v>
       </c>
       <c r="G304">
-        <v>0.5217391304347826</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
+        <v>0.52173913043478259</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -7411,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -7428,13 +7446,13 @@
         <v>1</v>
       </c>
       <c r="F306">
-        <v>0.4680851063829787</v>
+        <v>0.46808510638297868</v>
       </c>
       <c r="G306">
-        <v>0.5319148936170213</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7">
+        <v>0.53191489361702127</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -7457,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -7474,13 +7492,13 @@
         <v>0</v>
       </c>
       <c r="F308">
-        <v>0.5217391304347826</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="G308">
-        <v>0.4782608695652174</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7">
+        <v>0.47826086956521741</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -7497,13 +7515,13 @@
         <v>1</v>
       </c>
       <c r="F309">
-        <v>0.5111111111111112</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="G309">
-        <v>0.4888888888888889</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7">
+        <v>0.48888888888888887</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -7520,13 +7538,13 @@
         <v>0</v>
       </c>
       <c r="F310">
-        <v>0.5227272727272727</v>
+        <v>0.52272727272727271</v>
       </c>
       <c r="G310">
-        <v>0.4772727272727273</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7">
+        <v>0.47727272727272729</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -7549,7 +7567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -7572,7 +7590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -7595,7 +7613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -7618,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -7641,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -7664,7 +7682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -7687,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -7710,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -7733,7 +7751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -7756,7 +7774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -7779,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -7802,7 +7820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -7819,13 +7837,13 @@
         <v>1</v>
       </c>
       <c r="F323">
-        <v>0.4878048780487805</v>
+        <v>0.48780487804878048</v>
       </c>
       <c r="G323">
-        <v>0.5121951219512195</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7">
+        <v>0.51219512195121952</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -7842,13 +7860,13 @@
         <v>1</v>
       </c>
       <c r="F324">
-        <v>0.4761904761904762</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="G324">
-        <v>0.5238095238095238</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7">
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -7871,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -7894,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -7917,7 +7935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -7934,13 +7952,13 @@
         <v>0</v>
       </c>
       <c r="F328">
-        <v>0.4883720930232557</v>
+        <v>0.48837209302325568</v>
       </c>
       <c r="G328">
-        <v>0.5116279069767442</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -7963,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -7986,7 +8004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -8003,13 +8021,13 @@
         <v>1</v>
       </c>
       <c r="F331">
-        <v>0.4883720930232557</v>
+        <v>0.48837209302325568</v>
       </c>
       <c r="G331">
-        <v>0.5116279069767442</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -8032,7 +8050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -8055,7 +8073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -8072,13 +8090,13 @@
         <v>0</v>
       </c>
       <c r="F334">
-        <v>0.4772727272727273</v>
+        <v>0.47727272727272729</v>
       </c>
       <c r="G334">
-        <v>0.5227272727272727</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -8095,13 +8113,13 @@
         <v>0</v>
       </c>
       <c r="F335">
-        <v>0.4772727272727273</v>
+        <v>0.47727272727272729</v>
       </c>
       <c r="G335">
-        <v>0.5227272727272727</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -8118,13 +8136,13 @@
         <v>1</v>
       </c>
       <c r="F336">
-        <v>0.5116279069767442</v>
+        <v>0.51162790697674421</v>
       </c>
       <c r="G336">
-        <v>0.4883720930232557</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7">
+        <v>0.48837209302325568</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -8141,13 +8159,13 @@
         <v>1</v>
       </c>
       <c r="F337">
-        <v>0.4883720930232557</v>
+        <v>0.48837209302325568</v>
       </c>
       <c r="G337">
-        <v>0.5116279069767442</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -8170,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -8187,13 +8205,13 @@
         <v>1</v>
       </c>
       <c r="F339">
-        <v>0.4883720930232557</v>
+        <v>0.48837209302325568</v>
       </c>
       <c r="G339">
-        <v>0.5116279069767442</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -8210,13 +8228,13 @@
         <v>1</v>
       </c>
       <c r="F340">
-        <v>0.4761904761904762</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="G340">
-        <v>0.5238095238095238</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7">
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -8239,7 +8257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -8256,13 +8274,13 @@
         <v>1</v>
       </c>
       <c r="F342">
-        <v>0.5348837209302326</v>
+        <v>0.53488372093023262</v>
       </c>
       <c r="G342">
-        <v>0.4651162790697674</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7">
+        <v>0.46511627906976738</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -8285,7 +8303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -8308,7 +8326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -8325,13 +8343,13 @@
         <v>0</v>
       </c>
       <c r="F345">
-        <v>0.5681818181818182</v>
+        <v>0.56818181818181823</v>
       </c>
       <c r="G345">
-        <v>0.4318181818181818</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7">
+        <v>0.43181818181818182</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -8348,13 +8366,13 @@
         <v>0</v>
       </c>
       <c r="F346">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G346">
-        <v>0.4444444444444444</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -8377,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -8400,7 +8418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -8417,13 +8435,13 @@
         <v>1</v>
       </c>
       <c r="F349">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G349">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -8440,13 +8458,13 @@
         <v>1</v>
       </c>
       <c r="F350">
-        <v>0.5434782608695652</v>
+        <v>0.54347826086956519</v>
       </c>
       <c r="G350">
-        <v>0.4565217391304348</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7">
+        <v>0.45652173913043481</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -8469,7 +8487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -8486,13 +8504,13 @@
         <v>1</v>
       </c>
       <c r="F352">
-        <v>0.5416666666666667</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="G352">
-        <v>0.4583333333333334</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7">
+        <v>0.45833333333333343</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -8515,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -8538,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -8561,7 +8579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -8584,7 +8602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -8607,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -8630,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -8653,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -8676,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -8699,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -8722,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -8745,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -8768,7 +8786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -8791,7 +8809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -8814,7 +8832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -8837,7 +8855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -8860,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -8883,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -8906,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -8929,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -8952,7 +8970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -8975,7 +8993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -8998,7 +9016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -9021,7 +9039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -9044,7 +9062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -9067,7 +9085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -9090,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -9113,7 +9131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -9130,13 +9148,13 @@
         <v>1</v>
       </c>
       <c r="F380">
-        <v>0.4594594594594595</v>
+        <v>0.45945945945945948</v>
       </c>
       <c r="G380">
-        <v>0.5405405405405406</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7">
+        <v>0.54054054054054057</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -9159,7 +9177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -9182,7 +9200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -9205,7 +9223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -9228,7 +9246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -9251,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -9274,7 +9292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -9297,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -9320,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -9337,13 +9355,13 @@
         <v>1</v>
       </c>
       <c r="F389">
-        <v>0.5405405405405406</v>
+        <v>0.54054054054054057</v>
       </c>
       <c r="G389">
-        <v>0.4594594594594595</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7">
+        <v>0.45945945945945948</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -9366,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -9389,7 +9407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -9409,10 +9427,10 @@
         <v>0.5641025641025641</v>
       </c>
       <c r="G392">
-        <v>0.4358974358974358</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7">
+        <v>0.43589743589743579</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -9435,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -9458,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -9475,13 +9493,13 @@
         <v>1</v>
       </c>
       <c r="F395">
-        <v>0.4736842105263158</v>
+        <v>0.47368421052631582</v>
       </c>
       <c r="G395">
-        <v>0.5263157894736842</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7">
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -9504,7 +9522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -9521,13 +9539,13 @@
         <v>1</v>
       </c>
       <c r="F397">
-        <v>0.4749999999999999</v>
+        <v>0.47499999999999992</v>
       </c>
       <c r="G397">
-        <v>0.525</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -9550,7 +9568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -9573,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -9590,13 +9608,13 @@
         <v>0</v>
       </c>
       <c r="F400">
-        <v>0.5121951219512195</v>
+        <v>0.51219512195121952</v>
       </c>
       <c r="G400">
-        <v>0.4878048780487805</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7">
+        <v>0.48780487804878048</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -9613,13 +9631,13 @@
         <v>1</v>
       </c>
       <c r="F401">
-        <v>0.5121951219512195</v>
+        <v>0.51219512195121952</v>
       </c>
       <c r="G401">
-        <v>0.4878048780487805</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7">
+        <v>0.48780487804878048</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -9642,7 +9660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -9665,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -9688,7 +9706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -9711,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -9728,13 +9746,13 @@
         <v>1</v>
       </c>
       <c r="F406">
-        <v>0.4883720930232557</v>
+        <v>0.48837209302325568</v>
       </c>
       <c r="G406">
-        <v>0.5116279069767442</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -9757,7 +9775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -9780,7 +9798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -9803,7 +9821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -9826,7 +9844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -9849,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -9872,7 +9890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -9889,13 +9907,13 @@
         <v>1</v>
       </c>
       <c r="F413">
-        <v>0.4651162790697674</v>
+        <v>0.46511627906976738</v>
       </c>
       <c r="G413">
-        <v>0.5348837209302326</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7">
+        <v>0.53488372093023262</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -9912,13 +9930,13 @@
         <v>1</v>
       </c>
       <c r="F414">
-        <v>0.4545454545454545</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="G414">
-        <v>0.5454545454545455</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7">
+        <v>0.54545454545454553</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -9935,13 +9953,13 @@
         <v>1</v>
       </c>
       <c r="F415">
-        <v>0.4418604651162791</v>
+        <v>0.44186046511627908</v>
       </c>
       <c r="G415">
-        <v>0.5581395348837209</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7">
+        <v>0.55813953488372092</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -9964,7 +9982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -9987,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -10004,13 +10022,13 @@
         <v>1</v>
       </c>
       <c r="F418">
-        <v>0.4545454545454545</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="G418">
-        <v>0.5454545454545455</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7">
+        <v>0.54545454545454553</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -10033,7 +10051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -10056,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -10079,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -10102,7 +10120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -10125,7 +10143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -10148,7 +10166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -10171,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -10194,7 +10212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -10217,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -10240,7 +10258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -10263,7 +10281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -10280,13 +10298,13 @@
         <v>0</v>
       </c>
       <c r="F430">
-        <v>0.5609756097560976</v>
+        <v>0.56097560975609762</v>
       </c>
       <c r="G430">
-        <v>0.4390243902439024</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7">
+        <v>0.43902439024390238</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -10303,13 +10321,13 @@
         <v>1</v>
       </c>
       <c r="F431">
-        <v>0.5365853658536586</v>
+        <v>0.53658536585365857</v>
       </c>
       <c r="G431">
-        <v>0.4634146341463413</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7">
+        <v>0.46341463414634132</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -10332,7 +10350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -10355,7 +10373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -10372,13 +10390,13 @@
         <v>1</v>
       </c>
       <c r="F434">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G434">
-        <v>0.4444444444444444</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -10401,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -10418,13 +10436,13 @@
         <v>0</v>
       </c>
       <c r="F436">
-        <v>0.4222222222222223</v>
+        <v>0.42222222222222228</v>
       </c>
       <c r="G436">
-        <v>0.5777777777777778</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7">
+        <v>0.57777777777777783</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -10447,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -10470,7 +10488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -10493,7 +10511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -10516,7 +10534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -10539,7 +10557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -10556,13 +10574,13 @@
         <v>1</v>
       </c>
       <c r="F442">
-        <v>0.5476190476190477</v>
+        <v>0.54761904761904767</v>
       </c>
       <c r="G442">
-        <v>0.4523809523809524</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7">
+        <v>0.45238095238095238</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -10585,7 +10603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -10602,13 +10620,13 @@
         <v>1</v>
       </c>
       <c r="F444">
-        <v>0.5581395348837209</v>
+        <v>0.55813953488372092</v>
       </c>
       <c r="G444">
-        <v>0.4418604651162791</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7">
+        <v>0.44186046511627908</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -10631,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -10654,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -10677,7 +10695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -10700,7 +10718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -10723,7 +10741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -10740,13 +10758,13 @@
         <v>1</v>
       </c>
       <c r="F450">
-        <v>0.4523809523809524</v>
+        <v>0.45238095238095238</v>
       </c>
       <c r="G450">
-        <v>0.5476190476190477</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7">
+        <v>0.54761904761904767</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -10769,7 +10787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -10792,7 +10810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -10815,7 +10833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -10838,7 +10856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -10861,7 +10879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -10884,7 +10902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -10901,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="F457">
-        <v>0.5227272727272727</v>
+        <v>0.52272727272727271</v>
       </c>
       <c r="G457">
-        <v>0.4772727272727273</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7">
+        <v>0.47727272727272729</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -10930,7 +10948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -10947,13 +10965,13 @@
         <v>1</v>
       </c>
       <c r="F459">
-        <v>0.5227272727272727</v>
+        <v>0.52272727272727271</v>
       </c>
       <c r="G459">
-        <v>0.4772727272727273</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7">
+        <v>0.47727272727272729</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -10976,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -10993,13 +11011,13 @@
         <v>0</v>
       </c>
       <c r="F461">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G461">
-        <v>0.4666666666666666</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -11022,7 +11040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -11045,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -11068,7 +11086,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -11091,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -11108,13 +11126,13 @@
         <v>1</v>
       </c>
       <c r="F466">
-        <v>0.4782608695652174</v>
+        <v>0.47826086956521741</v>
       </c>
       <c r="G466">
-        <v>0.5217391304347826</v>
-      </c>
-    </row>
-    <row r="467" spans="1:7">
+        <v>0.52173913043478259</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -11131,13 +11149,13 @@
         <v>0</v>
       </c>
       <c r="F467">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G467">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="468" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -11154,13 +11172,13 @@
         <v>0</v>
       </c>
       <c r="F468">
-        <v>0.5227272727272727</v>
+        <v>0.52272727272727271</v>
       </c>
       <c r="G468">
-        <v>0.4772727272727273</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7">
+        <v>0.47727272727272729</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -11183,7 +11201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -11200,13 +11218,13 @@
         <v>0</v>
       </c>
       <c r="F470">
-        <v>0.5116279069767442</v>
+        <v>0.51162790697674421</v>
       </c>
       <c r="G470">
-        <v>0.4883720930232557</v>
-      </c>
-    </row>
-    <row r="471" spans="1:7">
+        <v>0.48837209302325568</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -11229,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -11252,7 +11270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -11275,7 +11293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -11298,7 +11316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -11321,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -11344,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -11367,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -11390,7 +11408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -11413,7 +11431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -11436,7 +11454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -11459,7 +11477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -11482,7 +11500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -11505,7 +11523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -11522,13 +11540,13 @@
         <v>1</v>
       </c>
       <c r="F484">
-        <v>0.4473684210526316</v>
+        <v>0.44736842105263158</v>
       </c>
       <c r="G484">
-        <v>0.5526315789473685</v>
-      </c>
-    </row>
-    <row r="485" spans="1:7">
+        <v>0.55263157894736847</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -11551,7 +11569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -11568,13 +11586,13 @@
         <v>1</v>
       </c>
       <c r="F486">
-        <v>0.425</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G486">
-        <v>0.5750000000000001</v>
-      </c>
-    </row>
-    <row r="487" spans="1:7">
+        <v>0.57500000000000007</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -11591,13 +11609,13 @@
         <v>1</v>
       </c>
       <c r="F487">
-        <v>0.425</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G487">
-        <v>0.5750000000000001</v>
-      </c>
-    </row>
-    <row r="488" spans="1:7">
+        <v>0.57500000000000007</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -11614,13 +11632,13 @@
         <v>0</v>
       </c>
       <c r="F488">
-        <v>0.425</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G488">
-        <v>0.5750000000000001</v>
-      </c>
-    </row>
-    <row r="489" spans="1:7">
+        <v>0.57500000000000007</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -11637,13 +11655,13 @@
         <v>0</v>
       </c>
       <c r="F489">
-        <v>0.425</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G489">
-        <v>0.5750000000000001</v>
-      </c>
-    </row>
-    <row r="490" spans="1:7">
+        <v>0.57500000000000007</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -11660,13 +11678,13 @@
         <v>1</v>
       </c>
       <c r="F490">
-        <v>0.425</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G490">
-        <v>0.5750000000000001</v>
-      </c>
-    </row>
-    <row r="491" spans="1:7">
+        <v>0.57500000000000007</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -11689,7 +11707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -11706,13 +11724,13 @@
         <v>0</v>
       </c>
       <c r="F492">
-        <v>0.4146341463414634</v>
+        <v>0.41463414634146339</v>
       </c>
       <c r="G492">
-        <v>0.5853658536585366</v>
-      </c>
-    </row>
-    <row r="493" spans="1:7">
+        <v>0.58536585365853655</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -11729,18 +11747,18 @@
         <v>1</v>
       </c>
       <c r="F493">
-        <v>0.4390243902439024</v>
+        <v>0.43902439024390238</v>
       </c>
       <c r="G493">
-        <v>0.5609756097560976</v>
-      </c>
-    </row>
-    <row r="494" spans="1:7">
+        <v>0.56097560975609762</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
       <c r="B494" s="2">
-        <v>45793.47916666666</v>
+        <v>45793.479166666657</v>
       </c>
       <c r="C494">
         <v>1</v>
@@ -11758,12 +11776,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
       <c r="B495" s="2">
-        <v>45796.47916666666</v>
+        <v>45796.479166666657</v>
       </c>
       <c r="C495">
         <v>1</v>
@@ -11781,12 +11799,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
       <c r="B496" s="2">
-        <v>45797.47916666666</v>
+        <v>45797.479166666657</v>
       </c>
       <c r="C496">
         <v>0</v>
@@ -11804,12 +11822,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
       <c r="B497" s="2">
-        <v>45798.47916666666</v>
+        <v>45798.479166666657</v>
       </c>
       <c r="C497">
         <v>0</v>
@@ -11827,12 +11845,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
       <c r="B498" s="2">
-        <v>45799.47916666666</v>
+        <v>45799.479166666657</v>
       </c>
       <c r="C498">
         <v>1</v>
@@ -11850,12 +11868,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
       <c r="B499" s="2">
-        <v>45800.47916666666</v>
+        <v>45800.479166666657</v>
       </c>
       <c r="C499">
         <v>1</v>
@@ -11873,12 +11891,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
       <c r="B500" s="2">
-        <v>45804.47916666666</v>
+        <v>45804.479166666657</v>
       </c>
       <c r="C500">
         <v>1</v>
@@ -11896,12 +11914,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
       <c r="B501" s="2">
-        <v>45805.47916666666</v>
+        <v>45805.479166666657</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -11919,12 +11937,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>500</v>
       </c>
       <c r="B502" s="2">
-        <v>45806.47916666666</v>
+        <v>45806.479166666657</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -11942,12 +11960,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>501</v>
       </c>
       <c r="B503" s="2">
-        <v>45807.47916666666</v>
+        <v>45807.479166666657</v>
       </c>
       <c r="C503">
         <v>1</v>
@@ -11965,12 +11983,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>502</v>
       </c>
       <c r="B504" s="2">
-        <v>45810.47916666666</v>
+        <v>45810.479166666657</v>
       </c>
       <c r="C504">
         <v>1</v>
@@ -11988,12 +12006,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>503</v>
       </c>
       <c r="B505" s="2">
-        <v>45811.47916666666</v>
+        <v>45811.479166666657</v>
       </c>
       <c r="C505">
         <v>1</v>
@@ -12011,12 +12029,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>504</v>
       </c>
       <c r="B506" s="2">
-        <v>45812.47916666666</v>
+        <v>45812.479166666657</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -12028,18 +12046,18 @@
         <v>1</v>
       </c>
       <c r="F506">
-        <v>0.5143</v>
+        <v>0.51429999999999998</v>
       </c>
       <c r="G506">
-        <v>0.4857</v>
-      </c>
-    </row>
-    <row r="507" spans="1:7">
+        <v>0.48570000000000002</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>505</v>
       </c>
       <c r="B507" s="2">
-        <v>45813.47916666666</v>
+        <v>45813.479166666657</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -12057,12 +12075,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>506</v>
       </c>
       <c r="B508" s="2">
-        <v>45814.47916666666</v>
+        <v>45814.479166666657</v>
       </c>
       <c r="C508">
         <v>1</v>
@@ -12080,12 +12098,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>507</v>
       </c>
       <c r="B509" s="2">
-        <v>45817.47916666666</v>
+        <v>45817.479166666657</v>
       </c>
       <c r="C509">
         <v>0</v>
@@ -12103,12 +12121,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>508</v>
       </c>
       <c r="B510" s="2">
-        <v>45818.47916666666</v>
+        <v>45818.479166666657</v>
       </c>
       <c r="C510">
         <v>1</v>
@@ -12126,12 +12144,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>509</v>
       </c>
       <c r="B511" s="2">
-        <v>45819.47916666666</v>
+        <v>45819.479166666657</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -12149,12 +12167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>510</v>
       </c>
       <c r="B512" s="2">
-        <v>45820.47916666666</v>
+        <v>45820.479166666657</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -12172,12 +12190,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513" s="2">
-        <v>45821.47916666666</v>
+        <v>45821.479166666657</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -12195,12 +12213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514" s="2">
-        <v>45824.47916666666</v>
+        <v>45824.479166666657</v>
       </c>
       <c r="C514">
         <v>1</v>
@@ -12218,12 +12236,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515" s="2">
-        <v>45825.47916666666</v>
+        <v>45825.479166666657</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -12241,12 +12259,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516" s="2">
-        <v>45826.47916666666</v>
+        <v>45826.479166666657</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -12264,12 +12282,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517" s="2">
-        <v>45828.47916666666</v>
+        <v>45828.479166666657</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -12287,12 +12305,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518" s="2">
-        <v>45831.47916666666</v>
+        <v>45831.479166666657</v>
       </c>
       <c r="C518">
         <v>1</v>
@@ -12310,12 +12328,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519" s="2">
-        <v>45832.47916666666</v>
+        <v>45832.479166666657</v>
       </c>
       <c r="C519">
         <v>1</v>
@@ -12333,12 +12351,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520" s="2">
-        <v>45833.47916666666</v>
+        <v>45833.479166666657</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -12356,21 +12374,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521" s="2">
-        <v>45834.47916666666</v>
+        <v>45834.479166666657</v>
       </c>
       <c r="D521">
         <v>1</v>
       </c>
       <c r="F521">
-        <v>0.4545</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="G521">
-        <v>0.5455</v>
+        <v>0.54549999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVS.xlsx
+++ b/firebase_data_from_spyEnsembleVS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="624">
   <si>
     <t>date</t>
   </si>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2237,7 +2243,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H562"/>
+  <dimension ref="A1:H564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2289,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2315,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2341,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2367,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2393,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2419,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2445,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2471,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2497,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2523,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2549,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2575,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2601,7 +2607,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H14" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2627,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2653,7 +2659,7 @@
         <v>0.5</v>
       </c>
       <c r="H16" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2679,7 +2685,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H17" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2705,7 +2711,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H18" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2731,7 +2737,7 @@
         <v>0.5789473684210527</v>
       </c>
       <c r="H19" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2757,7 +2763,7 @@
         <v>0.45</v>
       </c>
       <c r="H20" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2783,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2809,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2835,7 +2841,7 @@
         <v>0.4782608695652175</v>
       </c>
       <c r="H23" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2861,7 +2867,7 @@
         <v>0.5</v>
       </c>
       <c r="H24" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2887,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2913,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2939,7 +2945,7 @@
         <v>0.5172413793103449</v>
       </c>
       <c r="H27" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2965,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2991,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3017,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3043,7 +3049,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="H31" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3069,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3095,7 +3101,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="H33" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3121,7 +3127,7 @@
         <v>0.4594594594594595</v>
       </c>
       <c r="H34" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3147,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3173,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3199,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3225,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3251,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3277,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3303,7 +3309,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H41" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3329,7 +3335,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H42" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3355,7 +3361,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H43" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3381,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3407,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3433,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3459,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3485,7 +3491,7 @@
         <v>0.5</v>
       </c>
       <c r="H48" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3511,7 +3517,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H49" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3537,7 +3543,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H50" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3563,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3589,7 +3595,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H52" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3615,7 +3621,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H53" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3641,7 +3647,7 @@
         <v>0.5</v>
       </c>
       <c r="H54" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3667,7 +3673,7 @@
         <v>0.5</v>
       </c>
       <c r="H55" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3693,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3719,7 +3725,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H57" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3745,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3771,7 +3777,7 @@
         <v>0.5</v>
       </c>
       <c r="H59" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3797,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3823,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3849,7 +3855,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H62" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3875,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3901,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3927,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3953,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3979,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4005,7 +4011,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H68" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4031,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4057,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4083,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4109,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4135,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4161,7 +4167,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H74" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4187,7 +4193,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H75" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4213,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4239,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4265,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4291,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4317,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4343,7 +4349,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H81" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4369,7 +4375,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H82" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4395,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4421,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4447,7 +4453,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4473,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4499,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4525,7 +4531,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H88" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4551,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4577,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4603,7 +4609,7 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="H91" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4629,7 +4635,7 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="H92" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4655,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4681,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4707,7 +4713,7 @@
         <v>0.4634146341463413</v>
       </c>
       <c r="H95" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4733,7 +4739,7 @@
         <v>0.5609756097560976</v>
       </c>
       <c r="H96" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4759,7 +4765,7 @@
         <v>0.5476190476190477</v>
       </c>
       <c r="H97" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4785,7 +4791,7 @@
         <v>0.5476190476190477</v>
       </c>
       <c r="H98" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4811,7 +4817,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H99" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4837,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4863,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4889,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4915,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4941,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4967,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4993,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5019,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5045,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5071,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5097,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5123,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5149,7 +5155,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5175,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5201,7 +5207,7 @@
         <v>0.5348837209302326</v>
       </c>
       <c r="H114" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5227,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5253,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5279,7 +5285,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H117" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5305,7 +5311,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H118" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5331,7 +5337,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H119" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5357,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5383,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5409,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5435,7 +5441,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H123" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5461,7 +5467,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H124" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5487,7 +5493,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H125" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5513,7 +5519,7 @@
         <v>0.5</v>
       </c>
       <c r="H126" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5539,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5565,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5591,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5617,7 +5623,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H130" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5643,7 +5649,7 @@
         <v>0.5</v>
       </c>
       <c r="H131" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5669,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5695,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5721,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5747,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5773,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5799,7 +5805,7 @@
         <v>0.5</v>
       </c>
       <c r="H137" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5825,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5851,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5877,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5903,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5929,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5955,7 +5961,7 @@
         <v>0.5283018867924528</v>
       </c>
       <c r="H143" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5981,7 +5987,7 @@
         <v>0.4807692307692308</v>
       </c>
       <c r="H144" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6007,7 +6013,7 @@
         <v>0.4901960784313726</v>
       </c>
       <c r="H145" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6033,7 +6039,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6059,7 +6065,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H147" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6085,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6111,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6137,7 +6143,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H150" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6163,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6189,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6215,7 +6221,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H153" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6241,7 +6247,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H154" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6267,7 +6273,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H155" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6293,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6319,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6345,7 +6351,7 @@
         <v>0.4468085106382979</v>
       </c>
       <c r="H158" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6371,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6397,7 +6403,7 @@
         <v>0.5652173913043479</v>
       </c>
       <c r="H160" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6423,7 +6429,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6449,7 +6455,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6475,7 +6481,7 @@
         <v>0.5531914893617021</v>
       </c>
       <c r="H163" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6501,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6527,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6553,7 +6559,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H166" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6579,7 +6585,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6605,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6631,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6657,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6683,7 +6689,7 @@
         <v>0.52</v>
       </c>
       <c r="H171" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6709,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6735,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6761,7 +6767,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H174" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6787,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6813,7 +6819,7 @@
         <v>0.4897959183673469</v>
       </c>
       <c r="H176" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6839,7 +6845,7 @@
         <v>0.5</v>
       </c>
       <c r="H177" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6865,7 +6871,7 @@
         <v>0.5102040816326531</v>
       </c>
       <c r="H178" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6891,7 +6897,7 @@
         <v>0.5</v>
       </c>
       <c r="H179" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6917,7 +6923,7 @@
         <v>0.4799999999999999</v>
       </c>
       <c r="H180" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6943,7 +6949,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6969,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6995,7 +7001,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7021,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7047,7 +7053,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H185" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7073,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7099,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7125,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7151,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7177,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7203,7 +7209,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7229,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7255,7 +7261,7 @@
         <v>0.5</v>
       </c>
       <c r="H193" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7281,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7307,7 +7313,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7333,7 +7339,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H196" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7359,7 +7365,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H197" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7385,7 +7391,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H198" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7411,7 +7417,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H199" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7437,7 +7443,7 @@
         <v>0.5</v>
       </c>
       <c r="H200" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7463,7 +7469,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H201" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7489,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7515,7 +7521,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7541,7 +7547,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H204" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7567,7 +7573,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H205" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7593,7 +7599,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H206" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7619,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7645,7 +7651,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H208" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7671,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7697,7 +7703,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H210" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7723,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7749,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7775,7 +7781,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H213" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7801,7 +7807,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7827,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7853,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7879,7 +7885,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H217" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7905,7 +7911,7 @@
         <v>0.4222222222222223</v>
       </c>
       <c r="H218" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7931,7 +7937,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H219" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7957,7 +7963,7 @@
         <v>0.4318181818181818</v>
       </c>
       <c r="H220" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7983,7 +7989,7 @@
         <v>0.4222222222222223</v>
       </c>
       <c r="H221" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8009,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8035,7 +8041,7 @@
         <v>0.4347826086956522</v>
       </c>
       <c r="H223" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8061,7 +8067,7 @@
         <v>0.4347826086956522</v>
       </c>
       <c r="H224" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8087,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8113,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8139,7 +8145,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8165,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8191,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8217,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8243,7 +8249,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8269,7 +8275,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8295,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8321,7 +8327,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8347,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8373,7 +8379,7 @@
         <v>0.6222222222222222</v>
       </c>
       <c r="H236" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8399,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8425,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8451,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8477,7 +8483,7 @@
         <v>0.4</v>
       </c>
       <c r="H240" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8503,7 +8509,7 @@
         <v>0.3863636363636364</v>
       </c>
       <c r="H241" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8529,7 +8535,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8555,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8581,7 +8587,7 @@
         <v>0.3777777777777779</v>
       </c>
       <c r="H244" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8607,7 +8613,7 @@
         <v>0.3777777777777779</v>
       </c>
       <c r="H245" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8633,7 +8639,7 @@
         <v>0.6136363636363636</v>
       </c>
       <c r="H246" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8659,7 +8665,7 @@
         <v>0.3863636363636364</v>
       </c>
       <c r="H247" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8685,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8711,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8737,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8763,7 +8769,7 @@
         <v>0.5869565217391304</v>
       </c>
       <c r="H251" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8789,7 +8795,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8815,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8841,7 +8847,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8867,7 +8873,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8893,7 +8899,7 @@
         <v>0.5777777777777778</v>
       </c>
       <c r="H256" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8919,7 +8925,7 @@
         <v>0.4</v>
       </c>
       <c r="H257" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8945,7 +8951,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8971,7 +8977,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8997,7 +9003,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9023,7 +9029,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9049,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9075,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9101,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9127,7 +9133,7 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="H265" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9153,7 +9159,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9179,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9205,7 +9211,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H268" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9231,7 +9237,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H269" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9257,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9283,7 +9289,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9309,7 +9315,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9335,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9361,7 +9367,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9387,7 +9393,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H275" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9413,7 +9419,7 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="H276" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9439,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9465,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9491,7 +9497,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H279" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9517,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9543,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9569,7 +9575,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H282" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9595,7 +9601,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H283" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9621,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9647,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9673,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9699,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9725,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9751,7 +9757,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H289" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9777,7 +9783,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H290" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9803,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9829,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9855,7 +9861,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H293" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9881,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9907,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9933,7 +9939,7 @@
         <v>0.4565217391304348</v>
       </c>
       <c r="H296" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9959,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9985,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10011,7 +10017,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10037,7 +10043,7 @@
         <v>0.5434782608695652</v>
       </c>
       <c r="H300" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10063,7 +10069,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10089,7 +10095,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H302" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10115,7 +10121,7 @@
         <v>0.5434782608695652</v>
       </c>
       <c r="H303" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10141,7 +10147,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H304" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10167,7 +10173,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10193,7 +10199,7 @@
         <v>0.5319148936170213</v>
       </c>
       <c r="H306" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10219,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10245,7 +10251,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H308" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10271,7 +10277,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H309" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10297,7 +10303,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H310" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10323,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10349,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10375,7 +10381,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10401,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10427,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10453,7 +10459,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10479,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10505,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10531,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="H319" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10557,7 +10563,7 @@
         <v>1</v>
       </c>
       <c r="H320" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10583,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10609,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10635,7 +10641,7 @@
         <v>0.5121951219512195</v>
       </c>
       <c r="H323" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10661,7 +10667,7 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="H324" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10687,7 +10693,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10713,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10739,7 +10745,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10765,7 +10771,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H328" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10791,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10817,7 +10823,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10843,7 +10849,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H331" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10869,7 +10875,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10895,7 +10901,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10921,7 +10927,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H334" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10947,7 +10953,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H335" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10973,7 +10979,7 @@
         <v>0.4883720930232557</v>
       </c>
       <c r="H336" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10999,7 +11005,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H337" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11025,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11051,7 +11057,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H339" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11077,7 +11083,7 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="H340" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11103,7 +11109,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11129,7 +11135,7 @@
         <v>0.4651162790697674</v>
       </c>
       <c r="H342" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11155,7 +11161,7 @@
         <v>1</v>
       </c>
       <c r="H343" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11181,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11207,7 +11213,7 @@
         <v>0.4318181818181818</v>
       </c>
       <c r="H345" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11233,7 +11239,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H346" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11259,7 +11265,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11285,7 +11291,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11311,7 +11317,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H349" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11337,7 +11343,7 @@
         <v>0.4565217391304348</v>
       </c>
       <c r="H350" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11363,7 +11369,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11389,7 +11395,7 @@
         <v>0.4583333333333334</v>
       </c>
       <c r="H352" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11415,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11441,7 +11447,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11467,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11493,7 +11499,7 @@
         <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11519,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="H357" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11545,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11571,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11597,7 +11603,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11623,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11649,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11675,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11701,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11727,7 +11733,7 @@
         <v>1</v>
       </c>
       <c r="H365" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11753,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11779,7 +11785,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11805,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11831,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11857,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11883,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11909,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11935,7 +11941,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11961,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11987,7 +11993,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12013,7 +12019,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12039,7 +12045,7 @@
         <v>1</v>
       </c>
       <c r="H377" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12065,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12091,7 +12097,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12117,7 +12123,7 @@
         <v>0.5405405405405406</v>
       </c>
       <c r="H380" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12143,7 +12149,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12169,7 +12175,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12195,7 +12201,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12221,7 +12227,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12247,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12273,7 +12279,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12299,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12325,7 +12331,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12351,7 +12357,7 @@
         <v>0.4594594594594595</v>
       </c>
       <c r="H389" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12377,7 +12383,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12403,7 +12409,7 @@
         <v>1</v>
       </c>
       <c r="H391" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12429,7 +12435,7 @@
         <v>0.4358974358974358</v>
       </c>
       <c r="H392" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12455,7 +12461,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12481,7 +12487,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12507,7 +12513,7 @@
         <v>0.5263157894736842</v>
       </c>
       <c r="H395" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12533,7 +12539,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12559,7 +12565,7 @@
         <v>0.525</v>
       </c>
       <c r="H397" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12585,7 +12591,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12611,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12637,7 +12643,7 @@
         <v>0.4878048780487805</v>
       </c>
       <c r="H400" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12663,7 +12669,7 @@
         <v>0.4878048780487805</v>
       </c>
       <c r="H401" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12689,7 +12695,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12715,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12741,7 +12747,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12767,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12793,7 +12799,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H406" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12819,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12845,7 +12851,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12871,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12897,7 +12903,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12923,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12949,7 +12955,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12975,7 +12981,7 @@
         <v>0.5348837209302326</v>
       </c>
       <c r="H413" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13001,7 +13007,7 @@
         <v>0.5454545454545455</v>
       </c>
       <c r="H414" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13027,7 +13033,7 @@
         <v>0.5581395348837209</v>
       </c>
       <c r="H415" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13053,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13079,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13105,7 +13111,7 @@
         <v>0.5454545454545455</v>
       </c>
       <c r="H418" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13131,7 +13137,7 @@
         <v>1</v>
       </c>
       <c r="H419" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13157,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13183,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13209,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13235,7 +13241,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13261,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13287,7 +13293,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13313,7 +13319,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13339,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13365,7 +13371,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13391,7 +13397,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13417,7 +13423,7 @@
         <v>0.4390243902439024</v>
       </c>
       <c r="H430" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13443,7 +13449,7 @@
         <v>0.4634146341463413</v>
       </c>
       <c r="H431" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13469,7 +13475,7 @@
         <v>1</v>
       </c>
       <c r="H432" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13495,7 +13501,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13521,7 +13527,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H434" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13547,7 +13553,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13573,7 +13579,7 @@
         <v>0.5777777777777778</v>
       </c>
       <c r="H436" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13599,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13625,7 +13631,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13651,7 +13657,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13677,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13703,7 +13709,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13729,7 +13735,7 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="H442" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13755,7 +13761,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13781,7 +13787,7 @@
         <v>0.4418604651162791</v>
       </c>
       <c r="H444" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13807,7 +13813,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13833,7 +13839,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13859,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13885,7 +13891,7 @@
         <v>1</v>
       </c>
       <c r="H448" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13911,7 +13917,7 @@
         <v>1</v>
       </c>
       <c r="H449" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13937,7 +13943,7 @@
         <v>0.5476190476190477</v>
       </c>
       <c r="H450" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13963,7 +13969,7 @@
         <v>1</v>
       </c>
       <c r="H451" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13989,7 +13995,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14015,7 +14021,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14041,7 +14047,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14067,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14093,7 +14099,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14119,7 +14125,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H457" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14145,7 +14151,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14171,7 +14177,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H459" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14197,7 +14203,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14223,7 +14229,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H461" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14249,7 +14255,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14275,7 +14281,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14301,7 +14307,7 @@
         <v>0.5</v>
       </c>
       <c r="H464" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14327,7 +14333,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14353,7 +14359,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H466" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14379,7 +14385,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H467" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14405,7 +14411,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H468" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14431,7 +14437,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14457,7 +14463,7 @@
         <v>0.4883720930232557</v>
       </c>
       <c r="H470" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14483,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14509,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14535,7 +14541,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14561,7 +14567,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14587,7 +14593,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14613,7 +14619,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14639,7 +14645,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14665,7 +14671,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14691,7 +14697,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14717,7 +14723,7 @@
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14743,7 +14749,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14769,7 +14775,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14795,7 +14801,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14821,7 +14827,7 @@
         <v>0.5526315789473685</v>
       </c>
       <c r="H484" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14847,7 +14853,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14873,7 +14879,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H486" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14899,7 +14905,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H487" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14925,7 +14931,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H488" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14951,7 +14957,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H489" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14977,7 +14983,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H490" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15003,7 +15009,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15029,7 +15035,7 @@
         <v>0.5853658536585366</v>
       </c>
       <c r="H492" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15055,7 +15061,7 @@
         <v>0.5609756097560976</v>
       </c>
       <c r="H493" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15081,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15107,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15133,7 +15139,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15159,7 +15165,7 @@
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15185,7 +15191,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15211,7 +15217,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15237,7 +15243,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15263,7 +15269,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15289,7 +15295,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15315,7 +15321,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15341,7 +15347,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15367,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15393,7 +15399,7 @@
         <v>0.4857</v>
       </c>
       <c r="H506" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15419,7 +15425,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15445,7 +15451,7 @@
         <v>0.5</v>
       </c>
       <c r="H508" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15471,7 +15477,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15497,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15523,7 +15529,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15549,7 +15555,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15575,7 +15581,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15601,7 +15607,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15627,7 +15633,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15653,7 +15659,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15679,7 +15685,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15705,7 +15711,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15731,7 +15737,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15757,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15783,7 +15789,7 @@
         <v>0.5455</v>
       </c>
       <c r="H521" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15809,7 +15815,7 @@
         <v>0.4545</v>
       </c>
       <c r="H522" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15835,7 +15841,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15861,7 +15867,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15887,7 +15893,7 @@
         <v>0.5294</v>
       </c>
       <c r="H525" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15913,7 +15919,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15939,7 +15945,7 @@
         <v>0.4571</v>
       </c>
       <c r="H527" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15965,7 +15971,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15991,7 +15997,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16017,7 +16023,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16043,7 +16049,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16069,7 +16075,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16095,7 +16101,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16121,7 +16127,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16147,7 +16153,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16173,7 +16179,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16199,7 +16205,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16225,7 +16231,7 @@
         <v>0.4848000000000001</v>
       </c>
       <c r="H538" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16251,7 +16257,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16277,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16303,7 +16309,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16329,7 +16335,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16355,7 +16361,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16381,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16407,7 +16413,7 @@
         <v>0.5143</v>
       </c>
       <c r="H545" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16433,7 +16439,7 @@
         <v>0.5</v>
       </c>
       <c r="H546" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16459,7 +16465,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16485,7 +16491,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16511,7 +16517,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16537,7 +16543,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16563,7 +16569,7 @@
         <v>0.5135</v>
       </c>
       <c r="H551" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16589,7 +16595,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16615,7 +16621,7 @@
         <v>0.5135</v>
       </c>
       <c r="H553" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16641,7 +16647,7 @@
         <v>0.5278</v>
       </c>
       <c r="H554" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16667,7 +16673,7 @@
         <v>0.5</v>
       </c>
       <c r="H555" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16693,7 +16699,7 @@
         <v>0.5278</v>
       </c>
       <c r="H556" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16719,7 +16725,7 @@
         <v>0.5143</v>
       </c>
       <c r="H557" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16745,7 +16751,7 @@
         <v>0.5294</v>
       </c>
       <c r="H558" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16771,7 +16777,7 @@
         <v>0.5</v>
       </c>
       <c r="H559" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16797,7 +16803,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16823,7 +16829,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16833,9 +16839,15 @@
       <c r="B562" t="s">
         <v>567</v>
       </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
       <c r="D562">
         <v>0</v>
       </c>
+      <c r="E562">
+        <v>1</v>
+      </c>
       <c r="F562">
         <v>1</v>
       </c>
@@ -16843,7 +16855,53 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
+        <v>568</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563">
+        <v>0</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>1</v>
+      </c>
+      <c r="G563">
+        <v>0</v>
+      </c>
+      <c r="H563" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
         <v>569</v>
+      </c>
+      <c r="D564">
+        <v>0</v>
+      </c>
+      <c r="F564">
+        <v>0.5143</v>
+      </c>
+      <c r="G564">
+        <v>0.4857</v>
+      </c>
+      <c r="H564" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVS.xlsx
+++ b/firebase_data_from_spyEnsembleVS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="626">
   <si>
     <t>date</t>
   </si>
@@ -1724,6 +1724,12 @@
   </si>
   <si>
     <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2243,7 +2249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H564"/>
+  <dimension ref="A1:H566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2295,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2321,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2347,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2373,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2399,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2425,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2451,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2477,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2503,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2529,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2555,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2581,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2607,7 +2613,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H14" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2633,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2659,7 +2665,7 @@
         <v>0.5</v>
       </c>
       <c r="H16" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2685,7 +2691,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H17" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2711,7 +2717,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H18" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2737,7 +2743,7 @@
         <v>0.5789473684210527</v>
       </c>
       <c r="H19" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2763,7 +2769,7 @@
         <v>0.45</v>
       </c>
       <c r="H20" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2789,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2815,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2841,7 +2847,7 @@
         <v>0.4782608695652175</v>
       </c>
       <c r="H23" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2867,7 +2873,7 @@
         <v>0.5</v>
       </c>
       <c r="H24" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2893,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2919,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2945,7 +2951,7 @@
         <v>0.5172413793103449</v>
       </c>
       <c r="H27" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2971,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2997,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3023,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3049,7 +3055,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="H31" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3075,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3101,7 +3107,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="H33" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3127,7 +3133,7 @@
         <v>0.4594594594594595</v>
       </c>
       <c r="H34" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3153,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3179,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3205,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3231,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3257,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3283,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3309,7 +3315,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H41" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3335,7 +3341,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H42" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3361,7 +3367,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H43" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3387,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3413,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3439,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3465,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3491,7 +3497,7 @@
         <v>0.5</v>
       </c>
       <c r="H48" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3517,7 +3523,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H49" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3543,7 +3549,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H50" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3569,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3595,7 +3601,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H52" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3621,7 +3627,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H53" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3647,7 +3653,7 @@
         <v>0.5</v>
       </c>
       <c r="H54" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3673,7 +3679,7 @@
         <v>0.5</v>
       </c>
       <c r="H55" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3699,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3725,7 +3731,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H57" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3751,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3777,7 +3783,7 @@
         <v>0.5</v>
       </c>
       <c r="H59" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3803,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3829,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3855,7 +3861,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H62" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3881,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3907,7 +3913,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3933,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3959,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3985,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4011,7 +4017,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H68" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4037,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4063,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4089,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4115,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4141,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4167,7 +4173,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H74" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4193,7 +4199,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H75" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4219,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4245,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4271,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4297,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4323,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4349,7 +4355,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H81" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4375,7 +4381,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H82" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4401,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4427,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4453,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4479,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4505,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4531,7 +4537,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H88" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4557,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4583,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4609,7 +4615,7 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="H91" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4635,7 +4641,7 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="H92" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4661,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4687,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4713,7 +4719,7 @@
         <v>0.4634146341463413</v>
       </c>
       <c r="H95" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4739,7 +4745,7 @@
         <v>0.5609756097560976</v>
       </c>
       <c r="H96" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4765,7 +4771,7 @@
         <v>0.5476190476190477</v>
       </c>
       <c r="H97" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4791,7 +4797,7 @@
         <v>0.5476190476190477</v>
       </c>
       <c r="H98" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4817,7 +4823,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H99" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4843,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4869,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4895,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4921,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4947,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4973,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4999,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5025,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5051,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5077,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5103,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5129,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5155,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5181,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5207,7 +5213,7 @@
         <v>0.5348837209302326</v>
       </c>
       <c r="H114" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5233,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5259,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5285,7 +5291,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H117" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5311,7 +5317,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H118" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5337,7 +5343,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H119" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5363,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5389,7 +5395,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5415,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5441,7 +5447,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H123" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5467,7 +5473,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H124" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5493,7 +5499,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H125" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5519,7 +5525,7 @@
         <v>0.5</v>
       </c>
       <c r="H126" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5545,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5571,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5597,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5623,7 +5629,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H130" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5649,7 +5655,7 @@
         <v>0.5</v>
       </c>
       <c r="H131" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5675,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5701,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5727,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5753,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5779,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5805,7 +5811,7 @@
         <v>0.5</v>
       </c>
       <c r="H137" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5831,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5857,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5883,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5909,7 +5915,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5935,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5961,7 +5967,7 @@
         <v>0.5283018867924528</v>
       </c>
       <c r="H143" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5987,7 +5993,7 @@
         <v>0.4807692307692308</v>
       </c>
       <c r="H144" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6013,7 +6019,7 @@
         <v>0.4901960784313726</v>
       </c>
       <c r="H145" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6039,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6065,7 +6071,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H147" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6091,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6117,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6143,7 +6149,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H150" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6169,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6195,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6221,7 +6227,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H153" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6247,7 +6253,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H154" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6273,7 +6279,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H155" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6299,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6325,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6351,7 +6357,7 @@
         <v>0.4468085106382979</v>
       </c>
       <c r="H158" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6377,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6403,7 +6409,7 @@
         <v>0.5652173913043479</v>
       </c>
       <c r="H160" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6429,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6455,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6481,7 +6487,7 @@
         <v>0.5531914893617021</v>
       </c>
       <c r="H163" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6507,7 +6513,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6533,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6559,7 +6565,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H166" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6585,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6611,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6637,7 +6643,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6663,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6689,7 +6695,7 @@
         <v>0.52</v>
       </c>
       <c r="H171" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6715,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6741,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6767,7 +6773,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H174" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6793,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6819,7 +6825,7 @@
         <v>0.4897959183673469</v>
       </c>
       <c r="H176" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6845,7 +6851,7 @@
         <v>0.5</v>
       </c>
       <c r="H177" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6871,7 +6877,7 @@
         <v>0.5102040816326531</v>
       </c>
       <c r="H178" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6897,7 +6903,7 @@
         <v>0.5</v>
       </c>
       <c r="H179" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6923,7 +6929,7 @@
         <v>0.4799999999999999</v>
       </c>
       <c r="H180" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6949,7 +6955,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6975,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7001,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7027,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7053,7 +7059,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H185" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7079,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7105,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7131,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7157,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7183,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7209,7 +7215,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7235,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7261,7 +7267,7 @@
         <v>0.5</v>
       </c>
       <c r="H193" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7287,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7313,7 +7319,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7339,7 +7345,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H196" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7365,7 +7371,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H197" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7391,7 +7397,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H198" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7417,7 +7423,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H199" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7443,7 +7449,7 @@
         <v>0.5</v>
       </c>
       <c r="H200" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7469,7 +7475,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H201" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7495,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7521,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7547,7 +7553,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H204" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7573,7 +7579,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H205" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7599,7 +7605,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H206" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7625,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7651,7 +7657,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H208" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7677,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7703,7 +7709,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H210" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7729,7 +7735,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7755,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7781,7 +7787,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H213" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7807,7 +7813,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7833,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7859,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7885,7 +7891,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H217" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7911,7 +7917,7 @@
         <v>0.4222222222222223</v>
       </c>
       <c r="H218" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7937,7 +7943,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H219" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7963,7 +7969,7 @@
         <v>0.4318181818181818</v>
       </c>
       <c r="H220" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7989,7 +7995,7 @@
         <v>0.4222222222222223</v>
       </c>
       <c r="H221" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8015,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8041,7 +8047,7 @@
         <v>0.4347826086956522</v>
       </c>
       <c r="H223" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8067,7 +8073,7 @@
         <v>0.4347826086956522</v>
       </c>
       <c r="H224" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8093,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8119,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8145,7 +8151,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8171,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8197,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8223,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8249,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8275,7 +8281,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8301,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8327,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8353,7 +8359,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8379,7 +8385,7 @@
         <v>0.6222222222222222</v>
       </c>
       <c r="H236" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8405,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8431,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8457,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8483,7 +8489,7 @@
         <v>0.4</v>
       </c>
       <c r="H240" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8509,7 +8515,7 @@
         <v>0.3863636363636364</v>
       </c>
       <c r="H241" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8535,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8561,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8587,7 +8593,7 @@
         <v>0.3777777777777779</v>
       </c>
       <c r="H244" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8613,7 +8619,7 @@
         <v>0.3777777777777779</v>
       </c>
       <c r="H245" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8639,7 +8645,7 @@
         <v>0.6136363636363636</v>
       </c>
       <c r="H246" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8665,7 +8671,7 @@
         <v>0.3863636363636364</v>
       </c>
       <c r="H247" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8691,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8717,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8743,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8769,7 +8775,7 @@
         <v>0.5869565217391304</v>
       </c>
       <c r="H251" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8795,7 +8801,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8821,7 +8827,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8847,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8873,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8899,7 +8905,7 @@
         <v>0.5777777777777778</v>
       </c>
       <c r="H256" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8925,7 +8931,7 @@
         <v>0.4</v>
       </c>
       <c r="H257" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8951,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8977,7 +8983,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9003,7 +9009,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9029,7 +9035,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9055,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9081,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9107,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9133,7 +9139,7 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="H265" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9159,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9185,7 +9191,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9211,7 +9217,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H268" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9237,7 +9243,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H269" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9263,7 +9269,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9289,7 +9295,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9315,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9341,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9367,7 +9373,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9393,7 +9399,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H275" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9419,7 +9425,7 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="H276" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9445,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9471,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9497,7 +9503,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H279" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9523,7 +9529,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9549,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9575,7 +9581,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H282" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9601,7 +9607,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H283" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9627,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9653,7 +9659,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9679,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9705,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9731,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9757,7 +9763,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H289" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9783,7 +9789,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H290" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9809,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9835,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9861,7 +9867,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H293" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9887,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9913,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9939,7 +9945,7 @@
         <v>0.4565217391304348</v>
       </c>
       <c r="H296" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9965,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9991,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10017,7 +10023,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10043,7 +10049,7 @@
         <v>0.5434782608695652</v>
       </c>
       <c r="H300" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10069,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10095,7 +10101,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H302" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10121,7 +10127,7 @@
         <v>0.5434782608695652</v>
       </c>
       <c r="H303" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10147,7 +10153,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H304" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10173,7 +10179,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10199,7 +10205,7 @@
         <v>0.5319148936170213</v>
       </c>
       <c r="H306" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10225,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10251,7 +10257,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H308" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10277,7 +10283,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H309" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10303,7 +10309,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H310" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10329,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10355,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10381,7 +10387,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10407,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10433,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10459,7 +10465,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10485,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10511,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10537,7 +10543,7 @@
         <v>1</v>
       </c>
       <c r="H319" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10563,7 +10569,7 @@
         <v>1</v>
       </c>
       <c r="H320" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10589,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10615,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10641,7 +10647,7 @@
         <v>0.5121951219512195</v>
       </c>
       <c r="H323" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10667,7 +10673,7 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="H324" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10693,7 +10699,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10719,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10745,7 +10751,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10771,7 +10777,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H328" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10797,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10823,7 +10829,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10849,7 +10855,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H331" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10875,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10901,7 +10907,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10927,7 +10933,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H334" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10953,7 +10959,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H335" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10979,7 +10985,7 @@
         <v>0.4883720930232557</v>
       </c>
       <c r="H336" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11005,7 +11011,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H337" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11031,7 +11037,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11057,7 +11063,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H339" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11083,7 +11089,7 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="H340" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11109,7 +11115,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11135,7 +11141,7 @@
         <v>0.4651162790697674</v>
       </c>
       <c r="H342" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11161,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="H343" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11187,7 +11193,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11213,7 +11219,7 @@
         <v>0.4318181818181818</v>
       </c>
       <c r="H345" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11239,7 +11245,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H346" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11265,7 +11271,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11291,7 +11297,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11317,7 +11323,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H349" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11343,7 +11349,7 @@
         <v>0.4565217391304348</v>
       </c>
       <c r="H350" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11369,7 +11375,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11395,7 +11401,7 @@
         <v>0.4583333333333334</v>
       </c>
       <c r="H352" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11421,7 +11427,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11447,7 +11453,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11473,7 +11479,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11499,7 +11505,7 @@
         <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11525,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="H357" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11551,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11577,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11603,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11629,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11655,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11681,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11707,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11733,7 +11739,7 @@
         <v>1</v>
       </c>
       <c r="H365" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11759,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11785,7 +11791,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11811,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11837,7 +11843,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11863,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11889,7 +11895,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11915,7 +11921,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11941,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11967,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11993,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12019,7 +12025,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12045,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="H377" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12071,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12097,7 +12103,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12123,7 +12129,7 @@
         <v>0.5405405405405406</v>
       </c>
       <c r="H380" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12149,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12175,7 +12181,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12201,7 +12207,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12227,7 +12233,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12253,7 +12259,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12279,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12305,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12331,7 +12337,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12357,7 +12363,7 @@
         <v>0.4594594594594595</v>
       </c>
       <c r="H389" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12383,7 +12389,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12409,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="H391" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12435,7 +12441,7 @@
         <v>0.4358974358974358</v>
       </c>
       <c r="H392" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12461,7 +12467,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12487,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12513,7 +12519,7 @@
         <v>0.5263157894736842</v>
       </c>
       <c r="H395" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12539,7 +12545,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12565,7 +12571,7 @@
         <v>0.525</v>
       </c>
       <c r="H397" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12591,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12617,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12643,7 +12649,7 @@
         <v>0.4878048780487805</v>
       </c>
       <c r="H400" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12669,7 +12675,7 @@
         <v>0.4878048780487805</v>
       </c>
       <c r="H401" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12695,7 +12701,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12721,7 +12727,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12747,7 +12753,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12773,7 +12779,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12799,7 +12805,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H406" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12825,7 +12831,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12851,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12877,7 +12883,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12903,7 +12909,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12929,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12955,7 +12961,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12981,7 +12987,7 @@
         <v>0.5348837209302326</v>
       </c>
       <c r="H413" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13007,7 +13013,7 @@
         <v>0.5454545454545455</v>
       </c>
       <c r="H414" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13033,7 +13039,7 @@
         <v>0.5581395348837209</v>
       </c>
       <c r="H415" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13059,7 +13065,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13085,7 +13091,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13111,7 +13117,7 @@
         <v>0.5454545454545455</v>
       </c>
       <c r="H418" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13137,7 +13143,7 @@
         <v>1</v>
       </c>
       <c r="H419" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13163,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13189,7 +13195,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13215,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13241,7 +13247,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13267,7 +13273,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13293,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13319,7 +13325,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13345,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13371,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13397,7 +13403,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13423,7 +13429,7 @@
         <v>0.4390243902439024</v>
       </c>
       <c r="H430" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13449,7 +13455,7 @@
         <v>0.4634146341463413</v>
       </c>
       <c r="H431" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13475,7 +13481,7 @@
         <v>1</v>
       </c>
       <c r="H432" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13501,7 +13507,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13527,7 +13533,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H434" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13553,7 +13559,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13579,7 +13585,7 @@
         <v>0.5777777777777778</v>
       </c>
       <c r="H436" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13605,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13631,7 +13637,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13657,7 +13663,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13683,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13709,7 +13715,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13735,7 +13741,7 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="H442" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13761,7 +13767,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13787,7 +13793,7 @@
         <v>0.4418604651162791</v>
       </c>
       <c r="H444" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13813,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13839,7 +13845,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13865,7 +13871,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13891,7 +13897,7 @@
         <v>1</v>
       </c>
       <c r="H448" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13917,7 +13923,7 @@
         <v>1</v>
       </c>
       <c r="H449" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13943,7 +13949,7 @@
         <v>0.5476190476190477</v>
       </c>
       <c r="H450" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13969,7 +13975,7 @@
         <v>1</v>
       </c>
       <c r="H451" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13995,7 +14001,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14021,7 +14027,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14047,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14073,7 +14079,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14099,7 +14105,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14125,7 +14131,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H457" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14151,7 +14157,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14177,7 +14183,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H459" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14203,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14229,7 +14235,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H461" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14255,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14281,7 +14287,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14307,7 +14313,7 @@
         <v>0.5</v>
       </c>
       <c r="H464" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14333,7 +14339,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14359,7 +14365,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H466" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14385,7 +14391,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H467" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14411,7 +14417,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H468" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14437,7 +14443,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14463,7 +14469,7 @@
         <v>0.4883720930232557</v>
       </c>
       <c r="H470" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14489,7 +14495,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14515,7 +14521,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14541,7 +14547,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14567,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14593,7 +14599,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14619,7 +14625,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14645,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14671,7 +14677,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14697,7 +14703,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14723,7 +14729,7 @@
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14749,7 +14755,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14775,7 +14781,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14801,7 +14807,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14827,7 +14833,7 @@
         <v>0.5526315789473685</v>
       </c>
       <c r="H484" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14853,7 +14859,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14879,7 +14885,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H486" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14905,7 +14911,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H487" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14931,7 +14937,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H488" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14957,7 +14963,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H489" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14983,7 +14989,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H490" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15009,7 +15015,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15035,7 +15041,7 @@
         <v>0.5853658536585366</v>
       </c>
       <c r="H492" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15061,7 +15067,7 @@
         <v>0.5609756097560976</v>
       </c>
       <c r="H493" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15087,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15113,7 +15119,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15139,7 +15145,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15165,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15191,7 +15197,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15217,7 +15223,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15243,7 +15249,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15269,7 +15275,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15295,7 +15301,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15321,7 +15327,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15347,7 +15353,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15373,7 +15379,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15399,7 +15405,7 @@
         <v>0.4857</v>
       </c>
       <c r="H506" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15425,7 +15431,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15451,7 +15457,7 @@
         <v>0.5</v>
       </c>
       <c r="H508" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15477,7 +15483,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15503,7 +15509,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15529,7 +15535,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15555,7 +15561,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15581,7 +15587,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15607,7 +15613,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15633,7 +15639,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15659,7 +15665,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15685,7 +15691,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15711,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15737,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15763,7 +15769,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15789,7 +15795,7 @@
         <v>0.5455</v>
       </c>
       <c r="H521" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15815,7 +15821,7 @@
         <v>0.4545</v>
       </c>
       <c r="H522" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15841,7 +15847,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15867,7 +15873,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15893,7 +15899,7 @@
         <v>0.5294</v>
       </c>
       <c r="H525" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15919,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15945,7 +15951,7 @@
         <v>0.4571</v>
       </c>
       <c r="H527" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15971,7 +15977,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15997,7 +16003,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16023,7 +16029,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16049,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16075,7 +16081,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16101,7 +16107,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16127,7 +16133,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16153,7 +16159,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16179,7 +16185,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16205,7 +16211,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16231,7 +16237,7 @@
         <v>0.4848000000000001</v>
       </c>
       <c r="H538" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16257,7 +16263,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16283,7 +16289,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16309,7 +16315,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16335,7 +16341,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16361,7 +16367,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16387,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16413,7 +16419,7 @@
         <v>0.5143</v>
       </c>
       <c r="H545" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16439,7 +16445,7 @@
         <v>0.5</v>
       </c>
       <c r="H546" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16465,7 +16471,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16491,7 +16497,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16517,7 +16523,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16543,7 +16549,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16569,7 +16575,7 @@
         <v>0.5135</v>
       </c>
       <c r="H551" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16595,7 +16601,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16621,7 +16627,7 @@
         <v>0.5135</v>
       </c>
       <c r="H553" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16647,7 +16653,7 @@
         <v>0.5278</v>
       </c>
       <c r="H554" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16673,7 +16679,7 @@
         <v>0.5</v>
       </c>
       <c r="H555" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16699,7 +16705,7 @@
         <v>0.5278</v>
       </c>
       <c r="H556" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16725,7 +16731,7 @@
         <v>0.5143</v>
       </c>
       <c r="H557" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16751,7 +16757,7 @@
         <v>0.5294</v>
       </c>
       <c r="H558" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16777,7 +16783,7 @@
         <v>0.5</v>
       </c>
       <c r="H559" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16803,7 +16809,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16829,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16855,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16881,7 +16887,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16891,7 +16897,13 @@
       <c r="B564" t="s">
         <v>569</v>
       </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
       <c r="D564">
+        <v>0</v>
+      </c>
+      <c r="E564">
         <v>0</v>
       </c>
       <c r="F564">
@@ -16901,7 +16913,53 @@
         <v>0.4857</v>
       </c>
       <c r="H564" t="s">
-        <v>621</v>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
+        <v>570</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+      <c r="E565">
+        <v>1</v>
+      </c>
+      <c r="F565">
+        <v>0</v>
+      </c>
+      <c r="G565">
+        <v>1</v>
+      </c>
+      <c r="H565" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
+        <v>571</v>
+      </c>
+      <c r="D566">
+        <v>0</v>
+      </c>
+      <c r="F566">
+        <v>1</v>
+      </c>
+      <c r="G566">
+        <v>0</v>
+      </c>
+      <c r="H566" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVS.xlsx
+++ b/firebase_data_from_spyEnsembleVS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="632">
   <si>
     <t>date</t>
   </si>
@@ -1730,6 +1730,24 @@
   </si>
   <si>
     <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2249,7 +2267,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H566"/>
+  <dimension ref="A1:H572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2301,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2327,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2353,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2379,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2405,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2431,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2457,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2483,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2509,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2535,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2561,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2587,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2613,7 +2631,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H14" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2639,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2665,7 +2683,7 @@
         <v>0.5</v>
       </c>
       <c r="H16" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2691,7 +2709,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H17" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2717,7 +2735,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H18" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2743,7 +2761,7 @@
         <v>0.5789473684210527</v>
       </c>
       <c r="H19" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2769,7 +2787,7 @@
         <v>0.45</v>
       </c>
       <c r="H20" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2795,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2821,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2847,7 +2865,7 @@
         <v>0.4782608695652175</v>
       </c>
       <c r="H23" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2873,7 +2891,7 @@
         <v>0.5</v>
       </c>
       <c r="H24" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2899,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2925,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2951,7 +2969,7 @@
         <v>0.5172413793103449</v>
       </c>
       <c r="H27" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2977,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3003,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3029,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3055,7 +3073,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="H31" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3081,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3107,7 +3125,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="H33" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3133,7 +3151,7 @@
         <v>0.4594594594594595</v>
       </c>
       <c r="H34" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3159,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3185,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3211,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3237,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3263,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3289,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3315,7 +3333,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H41" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3341,7 +3359,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H42" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3367,7 +3385,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H43" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3393,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3419,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3445,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3471,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3497,7 +3515,7 @@
         <v>0.5</v>
       </c>
       <c r="H48" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3523,7 +3541,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H49" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3549,7 +3567,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H50" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3575,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3601,7 +3619,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H52" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3627,7 +3645,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H53" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3653,7 +3671,7 @@
         <v>0.5</v>
       </c>
       <c r="H54" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3679,7 +3697,7 @@
         <v>0.5</v>
       </c>
       <c r="H55" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3705,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3731,7 +3749,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H57" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3757,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3783,7 +3801,7 @@
         <v>0.5</v>
       </c>
       <c r="H59" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3809,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3835,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3861,7 +3879,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H62" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3887,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3913,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3939,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3965,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3991,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4017,7 +4035,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H68" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4043,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4069,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4095,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4121,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4147,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4173,7 +4191,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H74" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4199,7 +4217,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H75" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4225,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4251,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4277,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4303,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4329,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4355,7 +4373,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H81" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4381,7 +4399,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H82" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4407,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4433,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4459,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4485,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4511,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4537,7 +4555,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H88" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4563,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4589,7 +4607,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4615,7 +4633,7 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="H91" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4641,7 +4659,7 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="H92" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4667,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4693,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4719,7 +4737,7 @@
         <v>0.4634146341463413</v>
       </c>
       <c r="H95" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4745,7 +4763,7 @@
         <v>0.5609756097560976</v>
       </c>
       <c r="H96" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4771,7 +4789,7 @@
         <v>0.5476190476190477</v>
       </c>
       <c r="H97" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4797,7 +4815,7 @@
         <v>0.5476190476190477</v>
       </c>
       <c r="H98" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4823,7 +4841,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H99" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4849,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4875,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4901,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4927,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4953,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4979,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5005,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5031,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5057,7 +5075,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5083,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5109,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5135,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5161,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5187,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5213,7 +5231,7 @@
         <v>0.5348837209302326</v>
       </c>
       <c r="H114" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5239,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5265,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5291,7 +5309,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H117" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5317,7 +5335,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H118" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5343,7 +5361,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H119" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5369,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5395,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5421,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5447,7 +5465,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H123" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5473,7 +5491,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H124" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5499,7 +5517,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H125" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5525,7 +5543,7 @@
         <v>0.5</v>
       </c>
       <c r="H126" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5551,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5577,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5603,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5629,7 +5647,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H130" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5655,7 +5673,7 @@
         <v>0.5</v>
       </c>
       <c r="H131" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5681,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5707,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5733,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5759,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5785,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5811,7 +5829,7 @@
         <v>0.5</v>
       </c>
       <c r="H137" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5837,7 +5855,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5863,7 +5881,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5889,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5915,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5941,7 +5959,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5967,7 +5985,7 @@
         <v>0.5283018867924528</v>
       </c>
       <c r="H143" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5993,7 +6011,7 @@
         <v>0.4807692307692308</v>
       </c>
       <c r="H144" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6019,7 +6037,7 @@
         <v>0.4901960784313726</v>
       </c>
       <c r="H145" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6045,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6071,7 +6089,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H147" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6097,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6123,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6149,7 +6167,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H150" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6175,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6201,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6227,7 +6245,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H153" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6253,7 +6271,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H154" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6279,7 +6297,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H155" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6305,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6331,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6357,7 +6375,7 @@
         <v>0.4468085106382979</v>
       </c>
       <c r="H158" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6383,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6409,7 +6427,7 @@
         <v>0.5652173913043479</v>
       </c>
       <c r="H160" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6435,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6461,7 +6479,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6487,7 +6505,7 @@
         <v>0.5531914893617021</v>
       </c>
       <c r="H163" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6513,7 +6531,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6539,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6565,7 +6583,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H166" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6591,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6617,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6643,7 +6661,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6669,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6695,7 +6713,7 @@
         <v>0.52</v>
       </c>
       <c r="H171" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6721,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6747,7 +6765,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6773,7 +6791,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H174" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6799,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6825,7 +6843,7 @@
         <v>0.4897959183673469</v>
       </c>
       <c r="H176" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6851,7 +6869,7 @@
         <v>0.5</v>
       </c>
       <c r="H177" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6877,7 +6895,7 @@
         <v>0.5102040816326531</v>
       </c>
       <c r="H178" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6903,7 +6921,7 @@
         <v>0.5</v>
       </c>
       <c r="H179" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6929,7 +6947,7 @@
         <v>0.4799999999999999</v>
       </c>
       <c r="H180" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6955,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6981,7 +6999,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7007,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7033,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7059,7 +7077,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H185" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7085,7 +7103,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7111,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7137,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7163,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7189,7 +7207,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7215,7 +7233,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7241,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7267,7 +7285,7 @@
         <v>0.5</v>
       </c>
       <c r="H193" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7293,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7319,7 +7337,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7345,7 +7363,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H196" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7371,7 +7389,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H197" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7397,7 +7415,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H198" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7423,7 +7441,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H199" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7449,7 +7467,7 @@
         <v>0.5</v>
       </c>
       <c r="H200" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7475,7 +7493,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H201" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7501,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7527,7 +7545,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7553,7 +7571,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H204" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7579,7 +7597,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H205" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7605,7 +7623,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H206" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7631,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7657,7 +7675,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H208" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7683,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7709,7 +7727,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H210" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7735,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7761,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7787,7 +7805,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H213" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7813,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7839,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7865,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7891,7 +7909,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H217" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7917,7 +7935,7 @@
         <v>0.4222222222222223</v>
       </c>
       <c r="H218" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7943,7 +7961,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H219" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7969,7 +7987,7 @@
         <v>0.4318181818181818</v>
       </c>
       <c r="H220" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7995,7 +8013,7 @@
         <v>0.4222222222222223</v>
       </c>
       <c r="H221" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8021,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8047,7 +8065,7 @@
         <v>0.4347826086956522</v>
       </c>
       <c r="H223" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8073,7 +8091,7 @@
         <v>0.4347826086956522</v>
       </c>
       <c r="H224" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8099,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8125,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8151,7 +8169,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8177,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8203,7 +8221,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8229,7 +8247,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8255,7 +8273,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8281,7 +8299,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8307,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8333,7 +8351,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8359,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8385,7 +8403,7 @@
         <v>0.6222222222222222</v>
       </c>
       <c r="H236" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8411,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8437,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8463,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8489,7 +8507,7 @@
         <v>0.4</v>
       </c>
       <c r="H240" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8515,7 +8533,7 @@
         <v>0.3863636363636364</v>
       </c>
       <c r="H241" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8541,7 +8559,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8567,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8593,7 +8611,7 @@
         <v>0.3777777777777779</v>
       </c>
       <c r="H244" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8619,7 +8637,7 @@
         <v>0.3777777777777779</v>
       </c>
       <c r="H245" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8645,7 +8663,7 @@
         <v>0.6136363636363636</v>
       </c>
       <c r="H246" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8671,7 +8689,7 @@
         <v>0.3863636363636364</v>
       </c>
       <c r="H247" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8697,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8723,7 +8741,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8749,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8775,7 +8793,7 @@
         <v>0.5869565217391304</v>
       </c>
       <c r="H251" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8801,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8827,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8853,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8879,7 +8897,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8905,7 +8923,7 @@
         <v>0.5777777777777778</v>
       </c>
       <c r="H256" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8931,7 +8949,7 @@
         <v>0.4</v>
       </c>
       <c r="H257" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8957,7 +8975,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8983,7 +9001,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9009,7 +9027,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9035,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9061,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9087,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9113,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9139,7 +9157,7 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="H265" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9165,7 +9183,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9191,7 +9209,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9217,7 +9235,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H268" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9243,7 +9261,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H269" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9269,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9295,7 +9313,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9321,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9347,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9373,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9399,7 +9417,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H275" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9425,7 +9443,7 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="H276" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9451,7 +9469,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9477,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9503,7 +9521,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H279" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9529,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9555,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9581,7 +9599,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H282" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9607,7 +9625,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H283" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9633,7 +9651,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9659,7 +9677,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9685,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9711,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9737,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9763,7 +9781,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H289" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9789,7 +9807,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H290" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9815,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9841,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9867,7 +9885,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H293" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9893,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9919,7 +9937,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9945,7 +9963,7 @@
         <v>0.4565217391304348</v>
       </c>
       <c r="H296" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9971,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9997,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10023,7 +10041,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10049,7 +10067,7 @@
         <v>0.5434782608695652</v>
       </c>
       <c r="H300" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10075,7 +10093,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10101,7 +10119,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H302" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10127,7 +10145,7 @@
         <v>0.5434782608695652</v>
       </c>
       <c r="H303" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10153,7 +10171,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H304" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10179,7 +10197,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10205,7 +10223,7 @@
         <v>0.5319148936170213</v>
       </c>
       <c r="H306" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10231,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10257,7 +10275,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H308" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10283,7 +10301,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H309" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10309,7 +10327,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H310" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10335,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10361,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10387,7 +10405,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10413,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10439,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10465,7 +10483,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10491,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10517,7 +10535,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10543,7 +10561,7 @@
         <v>1</v>
       </c>
       <c r="H319" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10569,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="H320" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10595,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10621,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10647,7 +10665,7 @@
         <v>0.5121951219512195</v>
       </c>
       <c r="H323" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10673,7 +10691,7 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="H324" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10699,7 +10717,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10725,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10751,7 +10769,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10777,7 +10795,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H328" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10803,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10829,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10855,7 +10873,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H331" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10881,7 +10899,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10907,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10933,7 +10951,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H334" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10959,7 +10977,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H335" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10985,7 +11003,7 @@
         <v>0.4883720930232557</v>
       </c>
       <c r="H336" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11011,7 +11029,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H337" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11037,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11063,7 +11081,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H339" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11089,7 +11107,7 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="H340" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11115,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11141,7 +11159,7 @@
         <v>0.4651162790697674</v>
       </c>
       <c r="H342" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11167,7 +11185,7 @@
         <v>1</v>
       </c>
       <c r="H343" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11193,7 +11211,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11219,7 +11237,7 @@
         <v>0.4318181818181818</v>
       </c>
       <c r="H345" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11245,7 +11263,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H346" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11271,7 +11289,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11297,7 +11315,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11323,7 +11341,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H349" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11349,7 +11367,7 @@
         <v>0.4565217391304348</v>
       </c>
       <c r="H350" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11375,7 +11393,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11401,7 +11419,7 @@
         <v>0.4583333333333334</v>
       </c>
       <c r="H352" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11427,7 +11445,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11453,7 +11471,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11479,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11505,7 +11523,7 @@
         <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11531,7 +11549,7 @@
         <v>1</v>
       </c>
       <c r="H357" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11557,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11583,7 +11601,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11609,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11635,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11661,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11687,7 +11705,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11713,7 +11731,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11739,7 +11757,7 @@
         <v>1</v>
       </c>
       <c r="H365" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11765,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11791,7 +11809,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11817,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11843,7 +11861,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11869,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11895,7 +11913,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11921,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11947,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11973,7 +11991,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11999,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12025,7 +12043,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12051,7 +12069,7 @@
         <v>1</v>
       </c>
       <c r="H377" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12077,7 +12095,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12103,7 +12121,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12129,7 +12147,7 @@
         <v>0.5405405405405406</v>
       </c>
       <c r="H380" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12155,7 +12173,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12181,7 +12199,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12207,7 +12225,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12233,7 +12251,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12259,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12285,7 +12303,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12311,7 +12329,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12337,7 +12355,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12363,7 +12381,7 @@
         <v>0.4594594594594595</v>
       </c>
       <c r="H389" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12389,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12415,7 +12433,7 @@
         <v>1</v>
       </c>
       <c r="H391" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12441,7 +12459,7 @@
         <v>0.4358974358974358</v>
       </c>
       <c r="H392" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12467,7 +12485,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12493,7 +12511,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12519,7 +12537,7 @@
         <v>0.5263157894736842</v>
       </c>
       <c r="H395" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12545,7 +12563,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12571,7 +12589,7 @@
         <v>0.525</v>
       </c>
       <c r="H397" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12597,7 +12615,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12623,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12649,7 +12667,7 @@
         <v>0.4878048780487805</v>
       </c>
       <c r="H400" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12675,7 +12693,7 @@
         <v>0.4878048780487805</v>
       </c>
       <c r="H401" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12701,7 +12719,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12727,7 +12745,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12753,7 +12771,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12779,7 +12797,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12805,7 +12823,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H406" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12831,7 +12849,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12857,7 +12875,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12883,7 +12901,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12909,7 +12927,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12935,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12961,7 +12979,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12987,7 +13005,7 @@
         <v>0.5348837209302326</v>
       </c>
       <c r="H413" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13013,7 +13031,7 @@
         <v>0.5454545454545455</v>
       </c>
       <c r="H414" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13039,7 +13057,7 @@
         <v>0.5581395348837209</v>
       </c>
       <c r="H415" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13065,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13091,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13117,7 +13135,7 @@
         <v>0.5454545454545455</v>
       </c>
       <c r="H418" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13143,7 +13161,7 @@
         <v>1</v>
       </c>
       <c r="H419" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13169,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13195,7 +13213,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13221,7 +13239,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13247,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13273,7 +13291,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13299,7 +13317,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13325,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13351,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13377,7 +13395,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13403,7 +13421,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13429,7 +13447,7 @@
         <v>0.4390243902439024</v>
       </c>
       <c r="H430" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13455,7 +13473,7 @@
         <v>0.4634146341463413</v>
       </c>
       <c r="H431" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13481,7 +13499,7 @@
         <v>1</v>
       </c>
       <c r="H432" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13507,7 +13525,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13533,7 +13551,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H434" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13559,7 +13577,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13585,7 +13603,7 @@
         <v>0.5777777777777778</v>
       </c>
       <c r="H436" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13611,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13637,7 +13655,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13663,7 +13681,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13689,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13715,7 +13733,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13741,7 +13759,7 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="H442" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13767,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13793,7 +13811,7 @@
         <v>0.4418604651162791</v>
       </c>
       <c r="H444" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13819,7 +13837,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13845,7 +13863,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13871,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13897,7 +13915,7 @@
         <v>1</v>
       </c>
       <c r="H448" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13923,7 +13941,7 @@
         <v>1</v>
       </c>
       <c r="H449" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13949,7 +13967,7 @@
         <v>0.5476190476190477</v>
       </c>
       <c r="H450" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13975,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="H451" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14001,7 +14019,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14027,7 +14045,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14053,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14079,7 +14097,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14105,7 +14123,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14131,7 +14149,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H457" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14157,7 +14175,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14183,7 +14201,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H459" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14209,7 +14227,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14235,7 +14253,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H461" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14261,7 +14279,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14287,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14313,7 +14331,7 @@
         <v>0.5</v>
       </c>
       <c r="H464" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14339,7 +14357,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14365,7 +14383,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H466" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14391,7 +14409,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H467" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14417,7 +14435,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H468" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14443,7 +14461,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14469,7 +14487,7 @@
         <v>0.4883720930232557</v>
       </c>
       <c r="H470" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14495,7 +14513,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14521,7 +14539,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14547,7 +14565,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14573,7 +14591,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14599,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14625,7 +14643,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14651,7 +14669,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14677,7 +14695,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14703,7 +14721,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14729,7 +14747,7 @@
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14755,7 +14773,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14781,7 +14799,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14807,7 +14825,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14833,7 +14851,7 @@
         <v>0.5526315789473685</v>
       </c>
       <c r="H484" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14859,7 +14877,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14885,7 +14903,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H486" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14911,7 +14929,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H487" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14937,7 +14955,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H488" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14963,7 +14981,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H489" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14989,7 +15007,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H490" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15015,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15041,7 +15059,7 @@
         <v>0.5853658536585366</v>
       </c>
       <c r="H492" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15067,7 +15085,7 @@
         <v>0.5609756097560976</v>
       </c>
       <c r="H493" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15093,7 +15111,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15119,7 +15137,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15145,7 +15163,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15171,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15197,7 +15215,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15223,7 +15241,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15249,7 +15267,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15275,7 +15293,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15301,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15327,7 +15345,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15353,7 +15371,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15379,7 +15397,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15405,7 +15423,7 @@
         <v>0.4857</v>
       </c>
       <c r="H506" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15431,7 +15449,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15457,7 +15475,7 @@
         <v>0.5</v>
       </c>
       <c r="H508" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15483,7 +15501,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15509,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15535,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15561,7 +15579,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15587,7 +15605,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15613,7 +15631,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15639,7 +15657,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15665,7 +15683,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15691,7 +15709,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15717,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15743,7 +15761,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15769,7 +15787,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15795,7 +15813,7 @@
         <v>0.5455</v>
       </c>
       <c r="H521" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15821,7 +15839,7 @@
         <v>0.4545</v>
       </c>
       <c r="H522" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15847,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15873,7 +15891,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15899,7 +15917,7 @@
         <v>0.5294</v>
       </c>
       <c r="H525" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15925,7 +15943,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15951,7 +15969,7 @@
         <v>0.4571</v>
       </c>
       <c r="H527" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15977,7 +15995,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16003,7 +16021,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16029,7 +16047,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16055,7 +16073,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16081,7 +16099,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16107,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16133,7 +16151,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16159,7 +16177,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16185,7 +16203,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16211,7 +16229,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16237,7 +16255,7 @@
         <v>0.4848000000000001</v>
       </c>
       <c r="H538" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16263,7 +16281,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16289,7 +16307,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16315,7 +16333,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16341,7 +16359,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16367,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16393,7 +16411,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16419,7 +16437,7 @@
         <v>0.5143</v>
       </c>
       <c r="H545" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16445,7 +16463,7 @@
         <v>0.5</v>
       </c>
       <c r="H546" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16471,7 +16489,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16497,7 +16515,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16523,7 +16541,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16549,7 +16567,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16575,7 +16593,7 @@
         <v>0.5135</v>
       </c>
       <c r="H551" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16601,7 +16619,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16627,7 +16645,7 @@
         <v>0.5135</v>
       </c>
       <c r="H553" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16653,7 +16671,7 @@
         <v>0.5278</v>
       </c>
       <c r="H554" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16679,7 +16697,7 @@
         <v>0.5</v>
       </c>
       <c r="H555" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16705,7 +16723,7 @@
         <v>0.5278</v>
       </c>
       <c r="H556" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16731,7 +16749,7 @@
         <v>0.5143</v>
       </c>
       <c r="H557" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16757,7 +16775,7 @@
         <v>0.5294</v>
       </c>
       <c r="H558" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16783,7 +16801,7 @@
         <v>0.5</v>
       </c>
       <c r="H559" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16809,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16835,7 +16853,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16861,7 +16879,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16887,7 +16905,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16913,7 +16931,7 @@
         <v>0.4857</v>
       </c>
       <c r="H564" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16939,7 +16957,7 @@
         <v>1</v>
       </c>
       <c r="H565" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16949,9 +16967,15 @@
       <c r="B566" t="s">
         <v>571</v>
       </c>
+      <c r="C566">
+        <v>0</v>
+      </c>
       <c r="D566">
         <v>0</v>
       </c>
+      <c r="E566">
+        <v>1</v>
+      </c>
       <c r="F566">
         <v>1</v>
       </c>
@@ -16959,7 +16983,157 @@
         <v>0</v>
       </c>
       <c r="H566" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
+        <v>572</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567">
+        <v>0</v>
+      </c>
+      <c r="E567">
+        <v>0</v>
+      </c>
+      <c r="F567">
+        <v>1</v>
+      </c>
+      <c r="G567">
+        <v>0</v>
+      </c>
+      <c r="H567" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
         <v>573</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+      <c r="E568">
+        <v>1</v>
+      </c>
+      <c r="F568">
+        <v>0</v>
+      </c>
+      <c r="G568">
+        <v>1</v>
+      </c>
+      <c r="H568" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>574</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569">
+        <v>1</v>
+      </c>
+      <c r="F569">
+        <v>0</v>
+      </c>
+      <c r="G569">
+        <v>1</v>
+      </c>
+      <c r="H569" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>575</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570">
+        <v>0</v>
+      </c>
+      <c r="F570">
+        <v>0</v>
+      </c>
+      <c r="G570">
+        <v>1</v>
+      </c>
+      <c r="H570" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>576</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
+      </c>
+      <c r="E571">
+        <v>1</v>
+      </c>
+      <c r="F571">
+        <v>0</v>
+      </c>
+      <c r="G571">
+        <v>1</v>
+      </c>
+      <c r="H571" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>577</v>
+      </c>
+      <c r="D572">
+        <v>0</v>
+      </c>
+      <c r="F572">
+        <v>1</v>
+      </c>
+      <c r="G572">
+        <v>0</v>
+      </c>
+      <c r="H572" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleVS.xlsx
+++ b/firebase_data_from_spyEnsembleVS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="634">
   <si>
     <t>date</t>
   </si>
@@ -1748,6 +1748,12 @@
   </si>
   <si>
     <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2267,7 +2273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H572"/>
+  <dimension ref="A1:H574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2319,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2345,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2371,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2397,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2423,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2449,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2475,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2501,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2527,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2553,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2579,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2605,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2631,7 +2637,7 @@
         <v>0.5384615384615385</v>
       </c>
       <c r="H14" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2657,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2683,7 +2689,7 @@
         <v>0.5</v>
       </c>
       <c r="H16" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2709,7 +2715,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H17" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2735,7 +2741,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H18" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2761,7 +2767,7 @@
         <v>0.5789473684210527</v>
       </c>
       <c r="H19" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2787,7 +2793,7 @@
         <v>0.45</v>
       </c>
       <c r="H20" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2813,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2839,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2865,7 +2871,7 @@
         <v>0.4782608695652175</v>
       </c>
       <c r="H23" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2891,7 +2897,7 @@
         <v>0.5</v>
       </c>
       <c r="H24" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2917,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2943,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2969,7 +2975,7 @@
         <v>0.5172413793103449</v>
       </c>
       <c r="H27" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2995,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3021,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3047,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3073,7 +3079,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="H31" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3099,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3125,7 +3131,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="H33" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3151,7 +3157,7 @@
         <v>0.4594594594594595</v>
       </c>
       <c r="H34" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3177,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3203,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3229,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3255,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3281,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3307,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3333,7 +3339,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H41" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3359,7 +3365,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H42" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3385,7 +3391,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H43" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3411,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3437,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3463,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3489,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3515,7 +3521,7 @@
         <v>0.5</v>
       </c>
       <c r="H48" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3541,7 +3547,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H49" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3567,7 +3573,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H50" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3593,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3619,7 +3625,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H52" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3645,7 +3651,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H53" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3671,7 +3677,7 @@
         <v>0.5</v>
       </c>
       <c r="H54" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3697,7 +3703,7 @@
         <v>0.5</v>
       </c>
       <c r="H55" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3723,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3749,7 +3755,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H57" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3775,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3801,7 +3807,7 @@
         <v>0.5</v>
       </c>
       <c r="H59" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3827,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3853,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3879,7 +3885,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H62" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3905,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3931,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3957,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3983,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4009,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4035,7 +4041,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H68" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4061,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4087,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4113,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4139,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4165,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4191,7 +4197,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H74" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4217,7 +4223,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H75" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4243,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4269,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4295,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4321,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4347,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4373,7 +4379,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H81" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4399,7 +4405,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H82" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4425,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4451,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4477,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4503,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4529,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4555,7 +4561,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H88" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4581,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4607,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4633,7 +4639,7 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="H91" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4659,7 +4665,7 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="H92" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4685,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4711,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4737,7 +4743,7 @@
         <v>0.4634146341463413</v>
       </c>
       <c r="H95" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4763,7 +4769,7 @@
         <v>0.5609756097560976</v>
       </c>
       <c r="H96" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4789,7 +4795,7 @@
         <v>0.5476190476190477</v>
       </c>
       <c r="H97" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4815,7 +4821,7 @@
         <v>0.5476190476190477</v>
       </c>
       <c r="H98" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4841,7 +4847,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="H99" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4867,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4893,7 +4899,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4919,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4945,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4971,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4997,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5023,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5049,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5075,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5101,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5127,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5153,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5179,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5205,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5231,7 +5237,7 @@
         <v>0.5348837209302326</v>
       </c>
       <c r="H114" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5257,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5283,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5309,7 +5315,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H117" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5335,7 +5341,7 @@
         <v>0.5111111111111112</v>
       </c>
       <c r="H118" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5361,7 +5367,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H119" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5387,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5413,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5439,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5465,7 +5471,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H123" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5491,7 +5497,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H124" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5517,7 +5523,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H125" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5543,7 +5549,7 @@
         <v>0.5</v>
       </c>
       <c r="H126" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5569,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5595,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5621,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5647,7 +5653,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H130" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5673,7 +5679,7 @@
         <v>0.5</v>
       </c>
       <c r="H131" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5699,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5725,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5751,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5777,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5803,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5829,7 +5835,7 @@
         <v>0.5</v>
       </c>
       <c r="H137" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5855,7 +5861,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5881,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5907,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5933,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5959,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5985,7 +5991,7 @@
         <v>0.5283018867924528</v>
       </c>
       <c r="H143" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6011,7 +6017,7 @@
         <v>0.4807692307692308</v>
       </c>
       <c r="H144" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6037,7 +6043,7 @@
         <v>0.4901960784313726</v>
       </c>
       <c r="H145" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6063,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6089,7 +6095,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H147" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6115,7 +6121,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6141,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6167,7 +6173,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H150" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6193,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6219,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6245,7 +6251,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H153" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6271,7 +6277,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H154" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6297,7 +6303,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H155" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6323,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6349,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6375,7 +6381,7 @@
         <v>0.4468085106382979</v>
       </c>
       <c r="H158" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6401,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6427,7 +6433,7 @@
         <v>0.5652173913043479</v>
       </c>
       <c r="H160" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6453,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6479,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6505,7 +6511,7 @@
         <v>0.5531914893617021</v>
       </c>
       <c r="H163" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6531,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6557,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6583,7 +6589,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H166" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6609,7 +6615,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6635,7 +6641,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6661,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6687,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6713,7 +6719,7 @@
         <v>0.52</v>
       </c>
       <c r="H171" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6739,7 +6745,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6765,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6791,7 +6797,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H174" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6817,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6843,7 +6849,7 @@
         <v>0.4897959183673469</v>
       </c>
       <c r="H176" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6869,7 +6875,7 @@
         <v>0.5</v>
       </c>
       <c r="H177" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6895,7 +6901,7 @@
         <v>0.5102040816326531</v>
       </c>
       <c r="H178" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6921,7 +6927,7 @@
         <v>0.5</v>
       </c>
       <c r="H179" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6947,7 +6953,7 @@
         <v>0.4799999999999999</v>
       </c>
       <c r="H180" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6973,7 +6979,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6999,7 +7005,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7025,7 +7031,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7051,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7077,7 +7083,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H185" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7103,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7129,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7155,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7181,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7207,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7233,7 +7239,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7259,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7285,7 +7291,7 @@
         <v>0.5</v>
       </c>
       <c r="H193" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7311,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7337,7 +7343,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7363,7 +7369,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H196" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7389,7 +7395,7 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="H197" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7415,7 +7421,7 @@
         <v>0.4893617021276596</v>
       </c>
       <c r="H198" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7441,7 +7447,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H199" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7467,7 +7473,7 @@
         <v>0.5</v>
       </c>
       <c r="H200" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7493,7 +7499,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H201" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7519,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7545,7 +7551,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7571,7 +7577,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H204" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7597,7 +7603,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H205" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7623,7 +7629,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H206" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7649,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7675,7 +7681,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H208" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7701,7 +7707,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7727,7 +7733,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H210" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7753,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7779,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7805,7 +7811,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H213" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7831,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7857,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7883,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7909,7 +7915,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H217" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7935,7 +7941,7 @@
         <v>0.4222222222222223</v>
       </c>
       <c r="H218" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7961,7 +7967,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H219" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7987,7 +7993,7 @@
         <v>0.4318181818181818</v>
       </c>
       <c r="H220" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8013,7 +8019,7 @@
         <v>0.4222222222222223</v>
       </c>
       <c r="H221" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8039,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8065,7 +8071,7 @@
         <v>0.4347826086956522</v>
       </c>
       <c r="H223" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8091,7 +8097,7 @@
         <v>0.4347826086956522</v>
       </c>
       <c r="H224" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8117,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8143,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8169,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8195,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8221,7 +8227,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8247,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8273,7 +8279,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8299,7 +8305,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8325,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8351,7 +8357,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8377,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8403,7 +8409,7 @@
         <v>0.6222222222222222</v>
       </c>
       <c r="H236" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8429,7 +8435,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8455,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8481,7 +8487,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8507,7 +8513,7 @@
         <v>0.4</v>
       </c>
       <c r="H240" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8533,7 +8539,7 @@
         <v>0.3863636363636364</v>
       </c>
       <c r="H241" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8559,7 +8565,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8585,7 +8591,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8611,7 +8617,7 @@
         <v>0.3777777777777779</v>
       </c>
       <c r="H244" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8637,7 +8643,7 @@
         <v>0.3777777777777779</v>
       </c>
       <c r="H245" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8663,7 +8669,7 @@
         <v>0.6136363636363636</v>
       </c>
       <c r="H246" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8689,7 +8695,7 @@
         <v>0.3863636363636364</v>
       </c>
       <c r="H247" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8715,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8741,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8767,7 +8773,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8793,7 +8799,7 @@
         <v>0.5869565217391304</v>
       </c>
       <c r="H251" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8819,7 +8825,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8845,7 +8851,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8871,7 +8877,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8897,7 +8903,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8923,7 +8929,7 @@
         <v>0.5777777777777778</v>
       </c>
       <c r="H256" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8949,7 +8955,7 @@
         <v>0.4</v>
       </c>
       <c r="H257" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8975,7 +8981,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9001,7 +9007,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9027,7 +9033,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9053,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9079,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9105,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9131,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9157,7 +9163,7 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="H265" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9183,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9209,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9235,7 +9241,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H268" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9261,7 +9267,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H269" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9287,7 +9293,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9313,7 +9319,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9339,7 +9345,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9365,7 +9371,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9391,7 +9397,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9417,7 +9423,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="H275" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9443,7 +9449,7 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="H276" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9469,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9495,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9521,7 +9527,7 @@
         <v>0.4693877551020408</v>
       </c>
       <c r="H279" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9547,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9573,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9599,7 +9605,7 @@
         <v>0.4680851063829787</v>
       </c>
       <c r="H282" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9625,7 +9631,7 @@
         <v>0.5106382978723404</v>
       </c>
       <c r="H283" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9651,7 +9657,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9677,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9703,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9729,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9755,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9781,7 +9787,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H289" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9807,7 +9813,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H290" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9833,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9859,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9885,7 +9891,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="H293" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9911,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9937,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9963,7 +9969,7 @@
         <v>0.4565217391304348</v>
       </c>
       <c r="H296" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9989,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10015,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10041,7 +10047,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10067,7 +10073,7 @@
         <v>0.5434782608695652</v>
       </c>
       <c r="H300" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10093,7 +10099,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10119,7 +10125,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H302" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10145,7 +10151,7 @@
         <v>0.5434782608695652</v>
       </c>
       <c r="H303" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10171,7 +10177,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H304" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10197,7 +10203,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10223,7 +10229,7 @@
         <v>0.5319148936170213</v>
       </c>
       <c r="H306" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10249,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10275,7 +10281,7 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="H308" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10301,7 +10307,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H309" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10327,7 +10333,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H310" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10353,7 +10359,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10379,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10405,7 +10411,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10431,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10457,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10483,7 +10489,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10509,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10535,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10561,7 +10567,7 @@
         <v>1</v>
       </c>
       <c r="H319" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10587,7 +10593,7 @@
         <v>1</v>
       </c>
       <c r="H320" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10613,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10639,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10665,7 +10671,7 @@
         <v>0.5121951219512195</v>
       </c>
       <c r="H323" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10691,7 +10697,7 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="H324" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10717,7 +10723,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10743,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="H326" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10769,7 +10775,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10795,7 +10801,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H328" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10821,7 +10827,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10847,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10873,7 +10879,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H331" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10899,7 +10905,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10925,7 +10931,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10951,7 +10957,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H334" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10977,7 +10983,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H335" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11003,7 +11009,7 @@
         <v>0.4883720930232557</v>
       </c>
       <c r="H336" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11029,7 +11035,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H337" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11055,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11081,7 +11087,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H339" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11107,7 +11113,7 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="H340" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11133,7 +11139,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11159,7 +11165,7 @@
         <v>0.4651162790697674</v>
       </c>
       <c r="H342" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11185,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="H343" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11211,7 +11217,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11237,7 +11243,7 @@
         <v>0.4318181818181818</v>
       </c>
       <c r="H345" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11263,7 +11269,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H346" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11289,7 +11295,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11315,7 +11321,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11341,7 +11347,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H349" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11367,7 +11373,7 @@
         <v>0.4565217391304348</v>
       </c>
       <c r="H350" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11393,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11419,7 +11425,7 @@
         <v>0.4583333333333334</v>
       </c>
       <c r="H352" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11445,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11471,7 +11477,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11497,7 +11503,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11523,7 +11529,7 @@
         <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11549,7 +11555,7 @@
         <v>1</v>
       </c>
       <c r="H357" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11575,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11601,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11627,7 +11633,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11653,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11679,7 +11685,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11705,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11731,7 +11737,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11757,7 +11763,7 @@
         <v>1</v>
       </c>
       <c r="H365" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11783,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11809,7 +11815,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11835,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11861,7 +11867,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11887,7 +11893,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11913,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11939,7 +11945,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11965,7 +11971,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11991,7 +11997,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12017,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12043,7 +12049,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12069,7 +12075,7 @@
         <v>1</v>
       </c>
       <c r="H377" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12095,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12121,7 +12127,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12147,7 +12153,7 @@
         <v>0.5405405405405406</v>
       </c>
       <c r="H380" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12173,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12199,7 +12205,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12225,7 +12231,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12251,7 +12257,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12277,7 +12283,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12303,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12329,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12355,7 +12361,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12381,7 +12387,7 @@
         <v>0.4594594594594595</v>
       </c>
       <c r="H389" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12407,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12433,7 +12439,7 @@
         <v>1</v>
       </c>
       <c r="H391" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12459,7 +12465,7 @@
         <v>0.4358974358974358</v>
       </c>
       <c r="H392" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12485,7 +12491,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12511,7 +12517,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12537,7 +12543,7 @@
         <v>0.5263157894736842</v>
       </c>
       <c r="H395" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12563,7 +12569,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12589,7 +12595,7 @@
         <v>0.525</v>
       </c>
       <c r="H397" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12615,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12641,7 +12647,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12667,7 +12673,7 @@
         <v>0.4878048780487805</v>
       </c>
       <c r="H400" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12693,7 +12699,7 @@
         <v>0.4878048780487805</v>
       </c>
       <c r="H401" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12719,7 +12725,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12745,7 +12751,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12771,7 +12777,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12797,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12823,7 +12829,7 @@
         <v>0.5116279069767442</v>
       </c>
       <c r="H406" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12849,7 +12855,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12875,7 +12881,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12901,7 +12907,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12927,7 +12933,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12953,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12979,7 +12985,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13005,7 +13011,7 @@
         <v>0.5348837209302326</v>
       </c>
       <c r="H413" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13031,7 +13037,7 @@
         <v>0.5454545454545455</v>
       </c>
       <c r="H414" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13057,7 +13063,7 @@
         <v>0.5581395348837209</v>
       </c>
       <c r="H415" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13083,7 +13089,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13109,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13135,7 +13141,7 @@
         <v>0.5454545454545455</v>
       </c>
       <c r="H418" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13161,7 +13167,7 @@
         <v>1</v>
       </c>
       <c r="H419" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13187,7 +13193,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13213,7 +13219,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13239,7 +13245,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13265,7 +13271,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13291,7 +13297,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13317,7 +13323,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13343,7 +13349,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13369,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13395,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13421,7 +13427,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13447,7 +13453,7 @@
         <v>0.4390243902439024</v>
       </c>
       <c r="H430" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13473,7 +13479,7 @@
         <v>0.4634146341463413</v>
       </c>
       <c r="H431" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13499,7 +13505,7 @@
         <v>1</v>
       </c>
       <c r="H432" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13525,7 +13531,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13551,7 +13557,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="H434" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13577,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13603,7 +13609,7 @@
         <v>0.5777777777777778</v>
       </c>
       <c r="H436" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13629,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13655,7 +13661,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13681,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13707,7 +13713,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13733,7 +13739,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13759,7 +13765,7 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="H442" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13785,7 +13791,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13811,7 +13817,7 @@
         <v>0.4418604651162791</v>
       </c>
       <c r="H444" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13837,7 +13843,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13863,7 +13869,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13889,7 +13895,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13915,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="H448" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13941,7 +13947,7 @@
         <v>1</v>
       </c>
       <c r="H449" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13967,7 +13973,7 @@
         <v>0.5476190476190477</v>
       </c>
       <c r="H450" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13993,7 +13999,7 @@
         <v>1</v>
       </c>
       <c r="H451" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14019,7 +14025,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14045,7 +14051,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14071,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14097,7 +14103,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14123,7 +14129,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14149,7 +14155,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H457" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14175,7 +14181,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14201,7 +14207,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H459" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14227,7 +14233,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14253,7 +14259,7 @@
         <v>0.4666666666666666</v>
       </c>
       <c r="H461" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14279,7 +14285,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14305,7 +14311,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14331,7 +14337,7 @@
         <v>0.5</v>
       </c>
       <c r="H464" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14357,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14383,7 +14389,7 @@
         <v>0.5217391304347826</v>
       </c>
       <c r="H466" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14409,7 +14415,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H467" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14435,7 +14441,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H468" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14461,7 +14467,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14487,7 +14493,7 @@
         <v>0.4883720930232557</v>
       </c>
       <c r="H470" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14513,7 +14519,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14539,7 +14545,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14565,7 +14571,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14591,7 +14597,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14617,7 +14623,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14643,7 +14649,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14669,7 +14675,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14695,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14721,7 +14727,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14747,7 +14753,7 @@
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14773,7 +14779,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14799,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14825,7 +14831,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14851,7 +14857,7 @@
         <v>0.5526315789473685</v>
       </c>
       <c r="H484" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14877,7 +14883,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14903,7 +14909,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H486" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14929,7 +14935,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H487" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14955,7 +14961,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H488" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14981,7 +14987,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H489" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15007,7 +15013,7 @@
         <v>0.5750000000000001</v>
       </c>
       <c r="H490" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15033,7 +15039,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15059,7 +15065,7 @@
         <v>0.5853658536585366</v>
       </c>
       <c r="H492" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15085,7 +15091,7 @@
         <v>0.5609756097560976</v>
       </c>
       <c r="H493" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15111,7 +15117,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15137,7 +15143,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15163,7 +15169,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15189,7 +15195,7 @@
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15215,7 +15221,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15241,7 +15247,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15267,7 +15273,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15293,7 +15299,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15319,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15345,7 +15351,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15371,7 +15377,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15397,7 +15403,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15423,7 +15429,7 @@
         <v>0.4857</v>
       </c>
       <c r="H506" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15449,7 +15455,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15475,7 +15481,7 @@
         <v>0.5</v>
       </c>
       <c r="H508" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15501,7 +15507,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15527,7 +15533,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15553,7 +15559,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15579,7 +15585,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15605,7 +15611,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15631,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15657,7 +15663,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15683,7 +15689,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15709,7 +15715,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15735,7 +15741,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15761,7 +15767,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15787,7 +15793,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15813,7 +15819,7 @@
         <v>0.5455</v>
       </c>
       <c r="H521" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15839,7 +15845,7 @@
         <v>0.4545</v>
       </c>
       <c r="H522" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15865,7 +15871,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15891,7 +15897,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15917,7 +15923,7 @@
         <v>0.5294</v>
       </c>
       <c r="H525" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15943,7 +15949,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15969,7 +15975,7 @@
         <v>0.4571</v>
       </c>
       <c r="H527" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15995,7 +16001,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16021,7 +16027,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16047,7 +16053,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16073,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16099,7 +16105,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16125,7 +16131,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16151,7 +16157,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16177,7 +16183,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16203,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16229,7 +16235,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16255,7 +16261,7 @@
         <v>0.4848000000000001</v>
       </c>
       <c r="H538" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16281,7 +16287,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16307,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16333,7 +16339,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16359,7 +16365,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16385,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16411,7 +16417,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16437,7 +16443,7 @@
         <v>0.5143</v>
       </c>
       <c r="H545" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16463,7 +16469,7 @@
         <v>0.5</v>
       </c>
       <c r="H546" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16489,7 +16495,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16515,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16541,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16567,7 +16573,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16593,7 +16599,7 @@
         <v>0.5135</v>
       </c>
       <c r="H551" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16619,7 +16625,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16645,7 +16651,7 @@
         <v>0.5135</v>
       </c>
       <c r="H553" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16671,7 +16677,7 @@
         <v>0.5278</v>
       </c>
       <c r="H554" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16697,7 +16703,7 @@
         <v>0.5</v>
       </c>
       <c r="H555" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16723,7 +16729,7 @@
         <v>0.5278</v>
       </c>
       <c r="H556" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16749,7 +16755,7 @@
         <v>0.5143</v>
       </c>
       <c r="H557" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16775,7 +16781,7 @@
         <v>0.5294</v>
       </c>
       <c r="H558" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16801,7 +16807,7 @@
         <v>0.5</v>
       </c>
       <c r="H559" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16827,7 +16833,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16853,7 +16859,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16879,7 +16885,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16905,7 +16911,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16931,7 +16937,7 @@
         <v>0.4857</v>
       </c>
       <c r="H564" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16957,7 +16963,7 @@
         <v>1</v>
       </c>
       <c r="H565" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16983,7 +16989,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -17009,7 +17015,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17035,7 +17041,7 @@
         <v>1</v>
       </c>
       <c r="H568" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17061,7 +17067,7 @@
         <v>1</v>
       </c>
       <c r="H569" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17087,7 +17093,7 @@
         <v>1</v>
       </c>
       <c r="H570" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17113,7 +17119,7 @@
         <v>1</v>
       </c>
       <c r="H571" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17123,9 +17129,15 @@
       <c r="B572" t="s">
         <v>577</v>
       </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
       <c r="D572">
         <v>0</v>
       </c>
+      <c r="E572">
+        <v>0</v>
+      </c>
       <c r="F572">
         <v>1</v>
       </c>
@@ -17133,7 +17145,53 @@
         <v>0</v>
       </c>
       <c r="H572" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" t="s">
+        <v>578</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+      <c r="E573">
+        <v>0</v>
+      </c>
+      <c r="F573">
+        <v>0</v>
+      </c>
+      <c r="G573">
+        <v>1</v>
+      </c>
+      <c r="H573" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" t="s">
         <v>579</v>
+      </c>
+      <c r="D574">
+        <v>0</v>
+      </c>
+      <c r="F574">
+        <v>0</v>
+      </c>
+      <c r="G574">
+        <v>0</v>
+      </c>
+      <c r="H574" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
